--- a/ModelPerformance.xlsx
+++ b/ModelPerformance.xlsx
@@ -3,7 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="FirstTry" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="SmallLayers" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="LargeLayers" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ParamScaling" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -60,16 +63,78 @@
   <si>
     <t>FREE SEARCH</t>
   </si>
+  <si>
+    <t>LearningRate</t>
+  </si>
+  <si>
+    <t>Learning Rate = tuning</t>
+  </si>
+  <si>
+    <t>LR=2,5e-4</t>
+  </si>
+  <si>
+    <t>Selected Model</t>
+  </si>
+  <si>
+    <t>Patience = 50</t>
+  </si>
+  <si>
+    <t>Dev Std</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Time Exec</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,22 +146,88 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -122,6 +253,89 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -193,7 +407,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$A$10</c:f>
+              <c:f>FirstTry!$A$10</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -208,21 +422,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$7:$H$7</c:f>
+              <c:f>FirstTry!$B$7:$H$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$10:$H$10</c:f>
+              <c:f>FirstTry!$B$10:$H$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="734327629"/>
-        <c:axId val="467162130"/>
+        <c:axId val="737435210"/>
+        <c:axId val="1380274766"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="734327629"/>
+        <c:axId val="737435210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,10 +488,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467162130"/>
+        <c:crossAx val="1380274766"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467162130"/>
+        <c:axId val="1380274766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,7 +566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="734327629"/>
+        <c:crossAx val="737435210"/>
       </c:valAx>
       <c:barChart>
         <c:barDir val="col"/>
@@ -361,7 +575,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$A$12</c:f>
+              <c:f>FirstTry!$A$12</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -376,21 +590,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$7:$H$7</c:f>
+              <c:f>FirstTry!$B$7:$H$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$12:$H$12</c:f>
+              <c:f>FirstTry!$B$12:$H$12</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="959759953"/>
-        <c:axId val="433234126"/>
+        <c:axId val="1275712989"/>
+        <c:axId val="1473533710"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="959759953"/>
+        <c:axId val="1275712989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,10 +628,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433234126"/>
+        <c:crossAx val="1473533710"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433234126"/>
+        <c:axId val="1473533710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,8 +706,550 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959759953"/>
+        <c:crossAx val="1275712989"/>
         <c:crosses val="max"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LargeLayers!$A$50</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LargeLayers!$B$47:$F$47</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LargeLayers!$B$50:$F$50</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LargeLayers!$A$52</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LargeLayers!$B$47:$F$47</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LargeLayers!$B$52:$F$52</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1813779528"/>
+        <c:axId val="461314080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1813779528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461314080"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="461314080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1813779528"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Time Scaling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ParamScaling!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ParamScaling!$B$2:$B$11</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ParamScaling!$C$2:$C$11</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503234464"/>
+        <c:axId val="1718843990"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503234464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t># Trainable Params</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718843990"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1718843990"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Training Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503234464"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -532,6 +1288,70 @@
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Grafico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Grafico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Grafico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1415,4 +2235,5912 @@
   </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.38"/>
+    <col customWidth="1" min="2" max="2" width="7.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C1" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D1" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E1" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F1" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>140.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G7" si="1">AVERAGE(B3:F3)</f>
+        <v>123</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H6" si="2">ROUND(G3/5,0)*5</f>
+        <v>125</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>64.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>67.6</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>26.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>17.2</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21">
+        <v>8.83127016845111E-4</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2.22209397630668E-4</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4.95089390519767E-4</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2.2217492654219E-4</v>
+      </c>
+      <c r="F7" s="21">
+        <v>6.55296161151914E-4</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="1"/>
+        <v>0.0004955793785</v>
+      </c>
+      <c r="H7" s="23">
+        <f>G7</f>
+        <v>0.0004955793785</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="27">
+        <v>14568.0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>12894.0</v>
+      </c>
+      <c r="D8" s="28">
+        <v>13599.0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>12249.0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>12414.0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>13224.0</v>
+      </c>
+      <c r="H8" s="27">
+        <v>13556.0</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="30"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>251.924505</v>
+      </c>
+      <c r="C11" s="5">
+        <v>422.834213</v>
+      </c>
+      <c r="D11" s="5">
+        <v>264.689815</v>
+      </c>
+      <c r="E11" s="7">
+        <v>325.733365</v>
+      </c>
+      <c r="F11" s="5">
+        <v>128.50633</v>
+      </c>
+      <c r="G11" s="5">
+        <v>243.759397</v>
+      </c>
+      <c r="H11" s="5">
+        <v>303.943331</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="34">
+        <f t="shared" ref="J11:J13" si="3">MIN(B11:H11)</f>
+        <v>128.50633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="J12" s="34">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1.35401702445299</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.04981541827727</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.01222887765483</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.32862131157705</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.3493169310365</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.14538235314737</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.02195825033518</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="34">
+        <f t="shared" si="3"/>
+        <v>1.012228878</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="30"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" ref="B16:H16" si="4">(B11-$J11)/$J11</f>
+        <v>0.9604054135</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="4"/>
+        <v>2.290376536</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="4"/>
+        <v>1.059741454</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="4"/>
+        <v>1.534765136</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="4"/>
+        <v>0.8968668469</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="4"/>
+        <v>1.36520124</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" ref="B17:H17" si="5">(B12-$J12)/$J12</f>
+        <v>0.8709677419</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="5"/>
+        <v>2.35483871</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="5"/>
+        <v>1.129032258</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="5"/>
+        <v>1.935483871</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.8387096774</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="5"/>
+        <v>1.419354839</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="35">
+        <f t="shared" ref="B18:H18" si="6">(B13-$J13)/$J13</f>
+        <v>0.3376589567</v>
+      </c>
+      <c r="C18" s="35">
+        <f t="shared" si="6"/>
+        <v>0.0371324524</v>
+      </c>
+      <c r="D18" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="6"/>
+        <v>0.312570053</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" si="6"/>
+        <v>0.3330156458</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="6"/>
+        <v>0.1315448299</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="6"/>
+        <v>0.009611830778</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="30"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>235.604274</v>
+      </c>
+      <c r="C21" s="5">
+        <v>259.622462</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:D23" si="7">D11</f>
+        <v>264.689815</v>
+      </c>
+      <c r="E21" s="7">
+        <v>187.118347</v>
+      </c>
+      <c r="F21" s="5">
+        <v>246.386694</v>
+      </c>
+      <c r="G21" s="5">
+        <v>430.95425</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21:H23" si="8">H11</f>
+        <v>303.943331</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="34">
+        <f t="shared" ref="J21:J23" si="9">MIN(B21:H21)</f>
+        <v>187.118347</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="D22" s="38">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>98.0</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="J22" s="34">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1.06967182893499</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.161427068</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" si="7"/>
+        <v>1.012228878</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.33464201638675</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.08379454454089</v>
+      </c>
+      <c r="G23" s="39">
+        <v>1.17014342488592</v>
+      </c>
+      <c r="H23" s="40">
+        <f t="shared" si="8"/>
+        <v>1.02195825</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="34">
+        <f t="shared" si="9"/>
+        <v>1.012228878</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="30"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" ref="B26:H26" si="10">(B21-$J21)/$J21</f>
+        <v>0.259119043</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="10"/>
+        <v>0.3874773167</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="10"/>
+        <v>0.4145583223</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="10"/>
+        <v>0.3167425747</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="10"/>
+        <v>1.303110608</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="10"/>
+        <v>0.6243374093</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" ref="B27:H27" si="11">(B22-$J22)/$J22</f>
+        <v>0.3111111111</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="11"/>
+        <v>0.4444444444</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="11"/>
+        <v>0.4666666667</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="11"/>
+        <v>0.2666666667</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="11"/>
+        <v>1.177777778</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="11"/>
+        <v>0.6666666667</v>
+      </c>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="35">
+        <f t="shared" ref="B28:H28" si="12">(B23-$J23)/$J23</f>
+        <v>0.05674897501</v>
+      </c>
+      <c r="C28" s="35">
+        <f t="shared" si="12"/>
+        <v>0.1473957063</v>
+      </c>
+      <c r="D28" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="35">
+        <f t="shared" si="12"/>
+        <v>0.3185180208</v>
+      </c>
+      <c r="F28" s="35">
+        <f t="shared" si="12"/>
+        <v>0.07070107212</v>
+      </c>
+      <c r="G28" s="35">
+        <f t="shared" si="12"/>
+        <v>0.1560067597</v>
+      </c>
+      <c r="H28" s="35">
+        <f t="shared" si="12"/>
+        <v>0.009611830778</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="30"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7">
+        <v>935.260316</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1355.0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>656.0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1153.0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>823.0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>887.0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1095.0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1033.0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1239.0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1466.0</v>
+      </c>
+      <c r="L32" s="42">
+        <f t="shared" ref="L32:L34" si="13">AVERAGE(B32:K32)</f>
+        <v>1064.226032</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" ref="M32:M34" si="14">STDEV(B32:K32)</f>
+        <v>249.2656761</v>
+      </c>
+      <c r="N32" s="43">
+        <f t="shared" ref="N32:N34" si="15">M32/L32</f>
+        <v>0.2342224947</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>222.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>321.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>289.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>209.0</v>
+      </c>
+      <c r="G33" s="38">
+        <v>227.0</v>
+      </c>
+      <c r="H33" s="38">
+        <v>272.0</v>
+      </c>
+      <c r="I33" s="38">
+        <v>260.0</v>
+      </c>
+      <c r="J33" s="38">
+        <v>316.0</v>
+      </c>
+      <c r="K33" s="38">
+        <v>372.0</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="13"/>
+        <v>265.5</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="14"/>
+        <v>61.34284347</v>
+      </c>
+      <c r="N33" s="43">
+        <f t="shared" si="15"/>
+        <v>0.2310464914</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.79325786262316</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.746015654466128</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.813897105455061</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.640010865014953</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.993046906499537</v>
+      </c>
+      <c r="G34" s="39">
+        <v>0.870371121087964</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0.772291895603351</v>
+      </c>
+      <c r="I34" s="39">
+        <v>0.727808673237641</v>
+      </c>
+      <c r="J34" s="39">
+        <v>0.723771302102425</v>
+      </c>
+      <c r="K34" s="39">
+        <v>0.720690347201577</v>
+      </c>
+      <c r="L34" s="44">
+        <f t="shared" si="13"/>
+        <v>0.7801161733</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="14"/>
+        <v>0.09723689178</v>
+      </c>
+      <c r="N34" s="43">
+        <f t="shared" si="15"/>
+        <v>0.1246441173</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="30"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="10">
+        <f t="shared" ref="B37:K37" si="16">(B32-$M37)/$M37</f>
+        <v>0.4257017012</v>
+      </c>
+      <c r="C37" s="10">
+        <f t="shared" si="16"/>
+        <v>1.06554878</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="16"/>
+        <v>0.7576219512</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="16"/>
+        <v>0.2545731707</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="16"/>
+        <v>0.3521341463</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="16"/>
+        <v>0.6692073171</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="16"/>
+        <v>0.574695122</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="16"/>
+        <v>0.8887195122</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="16"/>
+        <v>1.234756098</v>
+      </c>
+      <c r="M37" s="42">
+        <f t="shared" ref="M37:M39" si="18">MIN(B32:H32)</f>
+        <v>656</v>
+      </c>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="10">
+        <f t="shared" ref="B38:K38" si="17">(B33-$M38)/$M38</f>
+        <v>0.3293413174</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" si="17"/>
+        <v>0.9221556886</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="17"/>
+        <v>0.7305389222</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="17"/>
+        <v>0.251497006</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="17"/>
+        <v>0.3592814371</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="17"/>
+        <v>0.628742515</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="17"/>
+        <v>0.5568862275</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="17"/>
+        <v>0.8922155689</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="17"/>
+        <v>1.22754491</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="18"/>
+        <v>167</v>
+      </c>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="35">
+        <f t="shared" ref="B39:K39" si="19">(B34-$M39)/$M39</f>
+        <v>0.2394443688</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.1656296717</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.2716926383</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.5516094504</v>
+      </c>
+      <c r="G39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.3599317897</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.2066856015</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.1371817465</v>
+      </c>
+      <c r="J39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.1308734612</v>
+      </c>
+      <c r="K39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.1260595509</v>
+      </c>
+      <c r="L39" s="36"/>
+      <c r="M39" s="45">
+        <f t="shared" si="18"/>
+        <v>0.640010865</v>
+      </c>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="42">
+        <f t="shared" ref="L42:L44" si="20">AVERAGE(B42:K42)</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="3" t="str">
+        <f t="shared" ref="M42:M44" si="21">STDEV(B42:K42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="43" t="str">
+        <f t="shared" ref="N42:N44" si="22">M42/L42</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="43" t="str">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="44">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="43" t="str">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="30"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="10">
+        <f t="shared" ref="B47:K47" si="23">(B42-$M47)/$M47</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="M47" s="42">
+        <f t="shared" ref="M47:M49" si="25">MIN(B42:H42)</f>
+        <v>1</v>
+      </c>
+      <c r="N47" s="18"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="10">
+        <f t="shared" ref="B48:K48" si="24">(B43-$M48)/$M48</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="18"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="35">
+        <f t="shared" ref="B49:K49" si="26">(B44-$M49)/$M49</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="K49" s="35">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="L49" s="36"/>
+      <c r="M49" s="45">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="37"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B16:H18 B26:H28 B37:K39 B47:K49">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B26:H28 B37:K39 B47:K49">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>"10%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B26:H28 B37:K39 B47:K49">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>"10%"</formula>
+      <formula>"30%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B26:H28 B37:K39 B47:K49">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>"30%"</formula>
+      <formula>"50%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B26:H28 B37:K39 B47:K49">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>"50%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink display="Selected Model" location="SmallLayers!D1:D8" ref="A30"/>
+    <hyperlink display="Selected Model" location="SmallLayers!D1:D8" ref="A40"/>
+  </hyperlinks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C1" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D1" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E1" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F1" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>804.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>935.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G6" si="1">AVERAGE(B3:F3)</f>
+        <v>690.2</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>862.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>391.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>670.0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>419.4</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>519.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>801.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>609.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>177.0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>451.8</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>526.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>754.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>681.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>384.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>477.6</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="30"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="34">
+        <f t="shared" ref="J11:J13" si="2">MIN(B11:H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="30"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f t="shared" ref="B16:H16" si="3">(B11-$J11)/$J11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f t="shared" ref="B17:H17" si="4">(B12-$J12)/$J12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="35" t="str">
+        <f t="shared" ref="B18:H18" si="5">(B13-$J13)/$J13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>803.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>803.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>380.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>765.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>701.0</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ref="G24:G26" si="6">AVERAGE(B24:F24)</f>
+        <v>690.4</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ref="H24:H26" si="7">MIN(B24:F24)</f>
+        <v>380</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24:I26" si="8">MAX(B24:F24)</f>
+        <v>803</v>
+      </c>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>785.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>188.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>716.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>233.0</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="6"/>
+        <v>412.8</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="8"/>
+        <v>785</v>
+      </c>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1">
+        <v>790.0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="6"/>
+        <v>790</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="7"/>
+        <v>790</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="8"/>
+        <v>790</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="30"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="34">
+        <f t="shared" ref="J32:J34" si="9">MIN(B32:H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="30"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f t="shared" ref="B37:H37" si="10">(B32-$J32)/$J32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f t="shared" ref="B38:H38" si="11">(B33-$J33)/$J33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="35" t="str">
+        <f t="shared" ref="B39:H39" si="12">(B34-$J34)/$J34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F43" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="19">
+        <v>706.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>873.0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>487.0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>650.0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" ref="G45:G46" si="13">AVERAGE(B45:F45)</f>
+        <v>743.2</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" ref="H45:H46" si="14">MIN(B45:F45)</f>
+        <v>487</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" ref="I45:I46" si="15">MAX(B45:F45)</f>
+        <v>1000</v>
+      </c>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="19">
+        <v>460.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>973.0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>397.0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>580.0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="13"/>
+        <v>682</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="14"/>
+        <v>397</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="47">
+        <v>337683.0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>866217.0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>202413.0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>389211.0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1019001.0</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="30"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5">
+        <v>525.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1029.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>402.0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>445.0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1614.0</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="34">
+        <f t="shared" ref="J50:J52" si="16">MIN(B50:H50)</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="J51" s="34">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.891369090530221</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.89995715118768</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.960417630132383</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.987938440748736</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.835867620381654</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="34">
+        <f t="shared" si="16"/>
+        <v>0.8358676204</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="30"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="10">
+        <f t="shared" ref="B55:H55" si="17">(B50-$J50)/$J50</f>
+        <v>0.3059701493</v>
+      </c>
+      <c r="C55" s="10">
+        <f t="shared" si="17"/>
+        <v>1.559701493</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="17"/>
+        <v>0.1069651741</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="17"/>
+        <v>3.014925373</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="10">
+        <f t="shared" ref="B56:H56" si="18">(B51-$J51)/$J51</f>
+        <v>0.28125</v>
+      </c>
+      <c r="C56" s="10">
+        <f t="shared" si="18"/>
+        <v>0.21875</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="18"/>
+        <v>0.40625</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="18"/>
+        <v>0.6875</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="10">
+        <f t="shared" ref="B57:H57" si="19">(B52-$J52)/$J52</f>
+        <v>0.0663998327</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="19"/>
+        <v>0.07667425947</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="19"/>
+        <v>0.1490068603</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="19"/>
+        <v>0.1819317038</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="30"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="18"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="5">
+        <v>3183.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2429.0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>2524.0</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2737.0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2834.0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>2201.0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3045.0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3096.0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3256.0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>2183.0</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" ref="L61:L63" si="20">AVERAGE(B61:K61)</f>
+        <v>2748.8</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" ref="M61:M63" si="21">STDEV(B61:K61)</f>
+        <v>399.2330982</v>
+      </c>
+      <c r="N61" s="43">
+        <f t="shared" ref="N61:N63" si="22">M61/L61</f>
+        <v>0.1452390491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1">
+        <v>258.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>184.0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>252.0</v>
+      </c>
+      <c r="G62" s="38">
+        <v>166.0</v>
+      </c>
+      <c r="H62" s="38">
+        <v>223.0</v>
+      </c>
+      <c r="I62" s="38">
+        <v>231.0</v>
+      </c>
+      <c r="J62" s="38">
+        <v>241.0</v>
+      </c>
+      <c r="K62" s="38">
+        <v>168.0</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="20"/>
+        <v>211.2</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="21"/>
+        <v>34.55366197</v>
+      </c>
+      <c r="N62" s="43">
+        <f t="shared" si="22"/>
+        <v>0.163606354</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0.645015234286761</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.715667833270736</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0.662874595434794</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.666419122354704</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.629660539073555</v>
+      </c>
+      <c r="G63" s="39">
+        <v>0.682347824367538</v>
+      </c>
+      <c r="H63" s="39">
+        <v>0.721610637659973</v>
+      </c>
+      <c r="I63" s="39">
+        <v>0.617749549772931</v>
+      </c>
+      <c r="J63" s="39">
+        <v>0.761383569772201</v>
+      </c>
+      <c r="K63" s="39">
+        <v>0.688210596967934</v>
+      </c>
+      <c r="L63" s="44">
+        <f t="shared" si="20"/>
+        <v>0.6790939503</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="21"/>
+        <v>0.0444753056</v>
+      </c>
+      <c r="N63" s="43">
+        <f t="shared" si="22"/>
+        <v>0.0654921246</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="30"/>
+      <c r="N64" s="18"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N65" s="18"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="10">
+        <f t="shared" ref="B66:K66" si="23">(B61-$M66)/$M66</f>
+        <v>0.4580852038</v>
+      </c>
+      <c r="C66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.1126889601</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.1562070545</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.2537792029</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.2982134677</v>
+      </c>
+      <c r="G66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.008245533669</v>
+      </c>
+      <c r="H66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.3948694457</v>
+      </c>
+      <c r="I66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.4182317911</v>
+      </c>
+      <c r="J66" s="10">
+        <f t="shared" si="23"/>
+        <v>0.4915254237</v>
+      </c>
+      <c r="K66" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" ref="M66:M68" si="25">MIN(B61:K61)</f>
+        <v>2183</v>
+      </c>
+      <c r="N66" s="18"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="10">
+        <f t="shared" ref="B67:K67" si="24">(B62-$M67)/$M67</f>
+        <v>0.5542168675</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.1024096386</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.1084337349</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.2409638554</v>
+      </c>
+      <c r="F67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.5180722892</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.343373494</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.3915662651</v>
+      </c>
+      <c r="J67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.4518072289</v>
+      </c>
+      <c r="K67" s="10">
+        <f t="shared" si="24"/>
+        <v>0.01204819277</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="25"/>
+        <v>166</v>
+      </c>
+      <c r="N67" s="18"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="35">
+        <f t="shared" ref="B68:K68" si="26">(B63-$M68)/$M68</f>
+        <v>0.04413711758</v>
+      </c>
+      <c r="C68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.1585080613</v>
+      </c>
+      <c r="D68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.07304747641</v>
+      </c>
+      <c r="E68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.07878528216</v>
+      </c>
+      <c r="F68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.01928125938</v>
+      </c>
+      <c r="G68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.1045703305</v>
+      </c>
+      <c r="H68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.1681281483</v>
+      </c>
+      <c r="I68" s="35">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.2325117356</v>
+      </c>
+      <c r="K68" s="35">
+        <f t="shared" si="26"/>
+        <v>0.1140608637</v>
+      </c>
+      <c r="L68" s="36"/>
+      <c r="M68" s="45">
+        <f t="shared" si="25"/>
+        <v>0.6177495498</v>
+      </c>
+      <c r="N68" s="37"/>
+    </row>
+    <row r="72">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="74">
+      <c r="G74" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>"10%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>"10%"</formula>
+      <formula>"30%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>"30%"</formula>
+      <formula>"50%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>"50%"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink display="Selected Model" location="LargeLayers!B43:B47" ref="A59"/>
+  </hyperlinks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SmallLayers!B8</f>
+        <v>14568</v>
+      </c>
+      <c r="C2" s="49">
+        <f>SmallLayers!B21</f>
+        <v>235.604274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <f>SmallLayers!C8</f>
+        <v>12894</v>
+      </c>
+      <c r="C3" s="49">
+        <f>SmallLayers!C21</f>
+        <v>259.622462</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <f>SmallLayers!D8</f>
+        <v>13599</v>
+      </c>
+      <c r="C4" s="49">
+        <f>SmallLayers!D21</f>
+        <v>264.689815</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <f>SmallLayers!E8</f>
+        <v>12249</v>
+      </c>
+      <c r="C5" s="49">
+        <f>SmallLayers!E21</f>
+        <v>187.118347</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SmallLayers!F8</f>
+        <v>12414</v>
+      </c>
+      <c r="C6" s="49">
+        <f>SmallLayers!F21</f>
+        <v>246.386694</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2">
+        <f>LargeLayers!B47</f>
+        <v>337683</v>
+      </c>
+      <c r="C7" s="49">
+        <f>LargeLayers!B50</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <f>LargeLayers!C47</f>
+        <v>866217</v>
+      </c>
+      <c r="C8" s="49">
+        <f>LargeLayers!C50</f>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2">
+        <f>LargeLayers!D47</f>
+        <v>202413</v>
+      </c>
+      <c r="C9" s="49">
+        <f>LargeLayers!D50</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <f>LargeLayers!E47</f>
+        <v>389211</v>
+      </c>
+      <c r="C10" s="49">
+        <f>LargeLayers!E50</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2">
+        <f>LargeLayers!F47</f>
+        <v>1019001</v>
+      </c>
+      <c r="C11" s="49">
+        <f>LargeLayers!F50</f>
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="49"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="49"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="49"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="49"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="49"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="49"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="49"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="49"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="49"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="49"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="49"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="49"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="49"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="49"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="49"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="49"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="49"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="49"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="49"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="49"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="49"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="49"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="49"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="49"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="49"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="49"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="49"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="49"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="49"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="49"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="49"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="49"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="49"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="49"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="49"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="49"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="49"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="49"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="49"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="49"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="49"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="49"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="49"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="49"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="49"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="49"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="49"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="49"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="49"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="49"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="49"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="49"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="49"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="49"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="49"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="49"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="49"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="49"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="49"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="49"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="49"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="49"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="49"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="49"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="49"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="49"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="49"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="49"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="49"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="49"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="49"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="49"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="49"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="49"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="49"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="49"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="49"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="49"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="49"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="49"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="49"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="49"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="49"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="49"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="49"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="49"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="49"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="49"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="49"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="49"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="49"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="49"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="49"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="49"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="49"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="49"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="49"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="49"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="49"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="49"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="49"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="49"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="49"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="49"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="49"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="49"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="49"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="49"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="49"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="49"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="49"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="49"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="49"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="49"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="49"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="49"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="49"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="49"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="49"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="49"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="49"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="49"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="49"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="49"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="49"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="49"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="49"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="49"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="49"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="49"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="49"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="49"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="49"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="49"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="49"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="49"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="49"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="49"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="49"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="49"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="49"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="49"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="49"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="49"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="49"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="49"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="49"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="49"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="49"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="49"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="49"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="49"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="49"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="49"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="49"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="49"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="49"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="49"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="49"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="49"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="49"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="49"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="49"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="49"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="49"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="49"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="49"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="49"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="49"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="49"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="49"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="49"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="49"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="49"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="49"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="49"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="49"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="49"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="49"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="49"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="49"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="49"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="49"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="49"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="49"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="49"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="49"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="49"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="49"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="49"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="49"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="49"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="49"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="49"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="49"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="49"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="49"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="49"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="49"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="49"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="49"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="49"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="49"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="49"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="49"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="49"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="49"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="49"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="49"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="49"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="49"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="49"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="49"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="49"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="49"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="49"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="49"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="49"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="49"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="49"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="49"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="49"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="49"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="49"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="49"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="49"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="49"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="49"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="49"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="49"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="49"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="49"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="49"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="49"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="49"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="49"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="49"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="49"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="49"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="49"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="49"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="49"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="49"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="49"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="49"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="49"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="49"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="49"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="49"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="49"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="49"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="49"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="49"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="49"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="49"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="49"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="49"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="49"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="49"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="49"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="49"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="49"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="49"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="49"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="49"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="49"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="49"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="49"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="49"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="49"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="49"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="49"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="49"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="49"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="49"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="49"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="49"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="49"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="49"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="49"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="49"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="49"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="49"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="49"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="49"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="49"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="49"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="49"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="49"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="49"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="49"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="49"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="49"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="49"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="49"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="49"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="49"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="49"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="49"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="49"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="49"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="49"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="49"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="49"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="49"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="49"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="49"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="49"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="49"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="49"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="49"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="49"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="49"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="49"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="49"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="49"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="49"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="49"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="49"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="49"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="49"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="49"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="49"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="49"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="49"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="49"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="49"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="49"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="49"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="49"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="49"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="49"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="49"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="49"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="49"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="49"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="49"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="49"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="49"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="49"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="49"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="49"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="49"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="49"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="49"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="49"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="49"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="49"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="49"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="49"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="49"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="49"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="49"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="49"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="49"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="49"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="49"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="49"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="49"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="49"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="49"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="49"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="49"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="49"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="49"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="49"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="49"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="49"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="49"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="49"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="49"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="49"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="49"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="49"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="49"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="49"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="49"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="49"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="49"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="49"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="49"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="49"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="49"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="49"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="49"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="49"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="49"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="49"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="49"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="49"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="49"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="49"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="49"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="49"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="49"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="49"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="49"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="49"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="49"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="49"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="49"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="49"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="49"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="49"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="49"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="49"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="49"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="49"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="49"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="49"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="49"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="49"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="49"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="49"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="49"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="49"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="49"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="49"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="49"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="49"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="49"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="49"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="49"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="49"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="49"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="49"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="49"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="49"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="49"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="49"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="49"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="49"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="49"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="49"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="49"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="49"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="49"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="49"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="49"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="49"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="49"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="49"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="49"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="49"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="49"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="49"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="49"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="49"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="49"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="49"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="49"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="49"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="49"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="49"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="49"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="49"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="49"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="49"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="49"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="49"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="49"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="49"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="49"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="49"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="49"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="49"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="49"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="49"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="49"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="49"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="49"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="49"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="49"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="49"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="49"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="49"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="49"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="49"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="49"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="49"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="49"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="49"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="49"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="49"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="49"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="49"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="49"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="49"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="49"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="49"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="49"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="49"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="49"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="49"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="49"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="49"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="49"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="49"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="49"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="49"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="49"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="49"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="49"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="49"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="49"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="49"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="49"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="49"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="49"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="49"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="49"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="49"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="49"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="49"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="49"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="49"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="49"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="49"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="49"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="49"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="49"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="49"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="49"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="49"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="49"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="49"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="49"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="49"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="49"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="49"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="49"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="49"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="49"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="49"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="49"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="49"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="49"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="49"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="49"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="49"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="49"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="49"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="49"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="49"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="49"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="49"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="49"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="49"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="49"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="49"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="49"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="49"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="49"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="49"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="49"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="49"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="49"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="49"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="49"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="49"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="49"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="49"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="49"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="49"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="49"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="49"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="49"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="49"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="49"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="49"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="49"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="49"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="49"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="49"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="49"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="49"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="49"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="49"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="49"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="49"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="49"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="49"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="49"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="49"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="49"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="49"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="49"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="49"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="49"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="49"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="49"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="49"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="49"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="49"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="49"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="49"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="49"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="49"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="49"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="49"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="49"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="49"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="49"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="49"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="49"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="49"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="49"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="49"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="49"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="49"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="49"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="49"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="49"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="49"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="49"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="49"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="49"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="49"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="49"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="49"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="49"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="49"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="49"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="49"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="49"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="49"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="49"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="49"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="49"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="49"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="49"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="49"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="49"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="49"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="49"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="49"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="49"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="49"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="49"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="49"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="49"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="49"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="49"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="49"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="49"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="49"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="49"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="49"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="49"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="49"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="49"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="49"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="49"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="49"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="49"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="49"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="49"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="49"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="49"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="49"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="49"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="49"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="49"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="49"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="49"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="49"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="49"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="49"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="49"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="49"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="49"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="49"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="49"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="49"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="49"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="49"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="49"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="49"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="49"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="49"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="49"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="49"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="49"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="49"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="49"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="49"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="49"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="49"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="49"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="49"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="49"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="49"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="49"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="49"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="49"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="49"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="49"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="49"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="49"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="49"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="49"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="49"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="49"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="49"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="49"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="49"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="49"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="49"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="49"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="49"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="49"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="49"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="49"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="49"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="49"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="49"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="49"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="49"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="49"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="49"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="49"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="49"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="49"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="49"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="49"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="49"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="49"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="49"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="49"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="49"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="49"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="49"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="49"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="49"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="49"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="49"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="49"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="49"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="49"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="49"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="49"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="49"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="49"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="49"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="49"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="49"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="49"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="49"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="49"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="49"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="49"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="49"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="49"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="49"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="49"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="49"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="49"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="49"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="49"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="49"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="49"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="49"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="49"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="49"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="49"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="49"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="49"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="49"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="49"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="49"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="49"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="49"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="49"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="49"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="49"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="49"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="49"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="49"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="49"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="49"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="49"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="49"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="49"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="49"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="49"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="49"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="49"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="49"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="49"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="49"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="49"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="49"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="49"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="49"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="49"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="49"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="49"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="49"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="49"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="49"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="49"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="49"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="49"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="49"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="49"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="49"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="49"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="49"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="49"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="49"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="49"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="49"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="49"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="49"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="49"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="49"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="49"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="49"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="49"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="49"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="49"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="49"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="49"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="49"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="49"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="49"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="49"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="49"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="49"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="49"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="49"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="49"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="49"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="49"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="49"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="49"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="49"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="49"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="49"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="49"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="49"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="49"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="49"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="49"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="49"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="49"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="49"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="49"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="49"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="49"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="49"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="49"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="49"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="49"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="49"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="49"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="49"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="49"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="49"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="49"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="49"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="49"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="49"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="49"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="49"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="49"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="49"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="49"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="49"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="49"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="49"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="49"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="49"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="49"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="49"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="49"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="49"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="49"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="49"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="49"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="49"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="49"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="49"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="49"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="49"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="49"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="49"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="49"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="49"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="49"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="49"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="49"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="49"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="49"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="49"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="49"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="49"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="49"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="49"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="49"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="49"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="49"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="49"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="49"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="49"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="49"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="49"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="49"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="49"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="49"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="49"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="49"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="49"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="49"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="49"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="49"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="49"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="49"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="49"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="49"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="49"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="49"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="49"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="49"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="49"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="49"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="49"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="49"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="49"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="49"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="49"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="49"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="49"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="49"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="49"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="49"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="49"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="49"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="49"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="49"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="49"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="49"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="49"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="49"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="49"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="49"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="49"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="49"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="49"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="49"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="49"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="49"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="49"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="49"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="49"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="49"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="49"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="49"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="49"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="49"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="49"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="49"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="49"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="49"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="49"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="49"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="49"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="49"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="49"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="49"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="49"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="49"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ModelPerformance.xlsx
+++ b/ModelPerformance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Dev Std</t>
   </si>
   <si>
+    <t>MSE</t>
+  </si>
+  <si>
     <t>Max</t>
   </si>
   <si>
@@ -94,7 +97,13 @@
     <t>Time Exec</t>
   </si>
   <si>
-    <t>1S</t>
+    <t>err</t>
+  </si>
+  <si>
+    <t>4S</t>
+  </si>
+  <si>
+    <t>5S</t>
   </si>
   <si>
     <t>2S</t>
@@ -103,22 +112,19 @@
     <t>3S</t>
   </si>
   <si>
-    <t>4S</t>
+    <t>1S</t>
   </si>
   <si>
-    <t>5S</t>
+    <t>3B</t>
   </si>
   <si>
     <t>1B</t>
   </si>
   <si>
-    <t>2B</t>
+    <t>4B</t>
   </si>
   <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>4B</t>
+    <t>2B</t>
   </si>
   <si>
     <t>5B</t>
@@ -227,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -326,6 +332,13 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -335,7 +348,6 @@
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -432,11 +444,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="737435210"/>
-        <c:axId val="1380274766"/>
+        <c:axId val="1023573993"/>
+        <c:axId val="267046370"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="737435210"/>
+        <c:axId val="1023573993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,10 +500,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1380274766"/>
+        <c:crossAx val="267046370"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1380274766"/>
+        <c:axId val="267046370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737435210"/>
+        <c:crossAx val="1023573993"/>
       </c:valAx>
       <c:barChart>
         <c:barDir val="col"/>
@@ -600,11 +612,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1275712989"/>
-        <c:axId val="1473533710"/>
+        <c:axId val="1731195328"/>
+        <c:axId val="2067014635"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1275712989"/>
+        <c:axId val="1731195328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,10 +640,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1473533710"/>
+        <c:crossAx val="2067014635"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1473533710"/>
+        <c:axId val="2067014635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1275712989"/>
+        <c:crossAx val="1731195328"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -734,282 +746,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>LargeLayers!$A$50</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>LargeLayers!$B$47:$F$47</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>LargeLayers!$B$50:$F$50</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>LargeLayers!$A$52</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>LargeLayers!$B$47:$F$47</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>LargeLayers!$B$52:$F$52</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1813779528"/>
-        <c:axId val="461314080"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1813779528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="461314080"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="461314080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1813779528"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -1048,11 +784,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ParamScaling!$C$1</c:f>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -1092,11 +823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="503234464"/>
-        <c:axId val="1718843990"/>
+        <c:axId val="1225771179"/>
+        <c:axId val="512158790"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="503234464"/>
+        <c:axId val="1225771179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,10 +902,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1718843990"/>
+        <c:crossAx val="512158790"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1718843990"/>
+        <c:axId val="512158790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +980,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503234464"/>
+        <c:crossAx val="1225771179"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1310,48 +1041,22 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Grafico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Grafico"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Grafico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3310,86 +3015,178 @@
       <c r="N41" s="18"/>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="42">
+      <c r="B42" s="38">
+        <v>668.6</v>
+      </c>
+      <c r="C42" s="38">
+        <v>805.1</v>
+      </c>
+      <c r="D42" s="38">
+        <v>788.7</v>
+      </c>
+      <c r="E42" s="38">
+        <v>904.4</v>
+      </c>
+      <c r="F42" s="38">
+        <v>879.7</v>
+      </c>
+      <c r="G42" s="38">
+        <v>1243.9</v>
+      </c>
+      <c r="H42" s="38">
+        <v>1579.2</v>
+      </c>
+      <c r="I42" s="38">
+        <v>976.1</v>
+      </c>
+      <c r="J42" s="38">
+        <v>632.6</v>
+      </c>
+      <c r="K42" s="38">
+        <v>1297.9</v>
+      </c>
+      <c r="L42" s="2">
         <f t="shared" ref="L42:L44" si="20">AVERAGE(B42:K42)</f>
-        <v>1</v>
-      </c>
-      <c r="M42" s="3" t="str">
+        <v>977.62</v>
+      </c>
+      <c r="M42" s="2">
         <f t="shared" ref="M42:M44" si="21">STDEV(B42:K42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="43" t="str">
+        <v>303.7397819</v>
+      </c>
+      <c r="N42" s="43">
         <f t="shared" ref="N42:N44" si="22">M42/L42</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0.3106930933</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="3">
+      <c r="A43" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="39">
+        <v>0.7816</v>
+      </c>
+      <c r="C43" s="39">
+        <v>0.711</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0.7035</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0.7414</v>
+      </c>
+      <c r="F43" s="39">
+        <v>0.6889</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0.5597</v>
+      </c>
+      <c r="H43" s="39">
+        <v>0.5327</v>
+      </c>
+      <c r="I43" s="39">
+        <v>0.4867</v>
+      </c>
+      <c r="J43" s="39">
+        <v>0.8467</v>
+      </c>
+      <c r="K43" s="39">
+        <v>0.4512</v>
+      </c>
+      <c r="L43" s="40">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="M43" s="3" t="str">
+        <v>0.65034</v>
+      </c>
+      <c r="M43" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="43" t="str">
+        <v>0.1335666392</v>
+      </c>
+      <c r="N43" s="43">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0.2053797079</v>
+      </c>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
+        <f t="shared" ref="B44:K44" si="23">SQRT(B43)</f>
+        <v>0.8840814442</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.8432081594</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.8387490686</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.8610458757</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.83</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.7481310046</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.7298630008</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.6976388751</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.920163029</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="23"/>
+        <v>0.6717142249</v>
+      </c>
       <c r="L44" s="44">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="M44" s="3" t="str">
+        <v>0.8024594682</v>
+      </c>
+      <c r="M44" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="43" t="str">
+        <v>0.08431951044</v>
+      </c>
+      <c r="N44" s="43">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.1050763481</v>
       </c>
     </row>
     <row r="45">
@@ -3410,98 +3207,98 @@
         <v>11</v>
       </c>
       <c r="B47" s="10">
-        <f t="shared" ref="B47:K47" si="23">(B42-$M47)/$M47</f>
+        <f t="shared" ref="B47:K47" si="24">(B42-$M47)/$M47</f>
+        <v>0.05690799874</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" si="24"/>
+        <v>0.2726841606</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="24"/>
+        <v>0.2467594056</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="24"/>
+        <v>0.4296553905</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="24"/>
+        <v>0.3906101802</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="24"/>
+        <v>0.9663294341</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="24"/>
+        <v>1.496364211</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" si="24"/>
+        <v>0.5429971546</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="C47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="D47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="E47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="F47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="G47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="H47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="I47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="J47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
       <c r="K47" s="10">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="M47" s="42">
-        <f t="shared" ref="M47:M49" si="25">MIN(B42:H42)</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>1.051691432</v>
+      </c>
+      <c r="M47" s="48">
+        <f t="shared" ref="M47:M49" si="26">MIN(B42:K42)</f>
+        <v>632.6</v>
       </c>
       <c r="N47" s="18"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B48" s="10">
-        <f t="shared" ref="B48:K48" si="24">(B43-$M48)/$M48</f>
+        <f t="shared" ref="B48:K48" si="25">(B43-$M48)/$M48</f>
+        <v>0.7322695035</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.5757978723</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.5591755319</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.6431737589</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.5268173759</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.2404698582</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.1806294326</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.07867907801</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" si="25"/>
+        <v>0.8765514184</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="C48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="D48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="E48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="F48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="G48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="H48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="I48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="J48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="K48" s="10">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="M48" s="3">
-        <f t="shared" si="25"/>
-        <v>1</v>
+      <c r="M48" s="40">
+        <f t="shared" si="26"/>
+        <v>0.4512</v>
       </c>
       <c r="N48" s="18"/>
     </row>
@@ -3510,49 +3307,49 @@
         <v>13</v>
       </c>
       <c r="B49" s="35">
-        <f t="shared" ref="B49:K49" si="26">(B44-$M49)/$M49</f>
+        <f t="shared" ref="B49:K49" si="27">(B44-$M49)/$M49</f>
+        <v>0.3161570968</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.2553078795</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.2486695047</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.2818633932</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.2356445184</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.1137638251</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.08656773034</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.03859476121</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" si="27"/>
+        <v>0.3698727745</v>
+      </c>
+      <c r="K49" s="35">
+        <f t="shared" si="27"/>
         <v>0</v>
-      </c>
-      <c r="C49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="D49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="E49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="F49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="G49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="H49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="I49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="J49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="K49" s="35">
-        <f t="shared" si="26"/>
-        <v>-1</v>
       </c>
       <c r="L49" s="36"/>
       <c r="M49" s="45">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0.6717142249</v>
       </c>
       <c r="N49" s="37"/>
     </row>
@@ -3763,7 +3560,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="46"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9">
       <c r="A9" s="30"/>
@@ -3967,7 +3764,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" s="15"/>
     </row>
@@ -4048,16 +3845,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1">
         <v>790.0</v>
@@ -4081,19 +3878,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2"/>
       <c r="J27" s="18"/>
@@ -4124,7 +3921,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="46"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30">
       <c r="A30" s="30"/>
@@ -4328,7 +4125,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" s="15"/>
     </row>
@@ -4409,7 +4206,7 @@
       <c r="A47" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="50">
         <v>337683.0</v>
       </c>
       <c r="C47" s="4">
@@ -4427,7 +4224,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="46"/>
+      <c r="J47" s="49"/>
     </row>
     <row r="48">
       <c r="A48" s="30"/>
@@ -4644,7 +4441,7 @@
       <c r="J58" s="18"/>
     </row>
     <row r="59">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="14"/>
@@ -4981,42 +4778,364 @@
       </c>
       <c r="N68" s="37"/>
     </row>
+    <row r="69">
+      <c r="A69" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="15"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="18"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="38">
+        <v>2952.4</v>
+      </c>
+      <c r="C71" s="38">
+        <v>2636.8</v>
+      </c>
+      <c r="D71" s="38">
+        <v>2681.6</v>
+      </c>
+      <c r="E71" s="38">
+        <v>2922.2</v>
+      </c>
+      <c r="F71" s="38">
+        <v>2022.5</v>
+      </c>
+      <c r="G71" s="38">
+        <v>2337.1</v>
+      </c>
+      <c r="H71" s="38">
+        <v>3292.3</v>
+      </c>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="2">
+        <f t="shared" ref="L71:L73" si="27">AVERAGE(B71:K71)</f>
+        <v>2692.128571</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" ref="M71:M73" si="28">STDEV(B71:K71)</f>
+        <v>420.0197682</v>
+      </c>
+      <c r="N71" s="43">
+        <f t="shared" ref="N71:N73" si="29">M71/L71</f>
+        <v>0.1560177224</v>
+      </c>
+    </row>
     <row r="72">
-      <c r="G72" s="5"/>
+      <c r="A72" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="39">
+        <v>0.5004</v>
+      </c>
+      <c r="C72" s="39">
+        <v>0.6069</v>
+      </c>
+      <c r="D72" s="39">
+        <v>0.5114</v>
+      </c>
+      <c r="E72" s="39">
+        <v>0.4556</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0.8388</v>
+      </c>
+      <c r="G72" s="39">
+        <v>0.4328</v>
+      </c>
+      <c r="H72" s="39">
+        <v>0.4895</v>
+      </c>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="40">
+        <f t="shared" si="27"/>
+        <v>0.5479142857</v>
+      </c>
+      <c r="M72" s="40">
+        <f t="shared" si="28"/>
+        <v>0.1395649004</v>
+      </c>
+      <c r="N72" s="43">
+        <f t="shared" si="29"/>
+        <v>0.2547203168</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="8">
+        <f t="shared" ref="B73:H73" si="30">SQRT(B72)</f>
+        <v>0.7073895674</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" si="30"/>
+        <v>0.7790378681</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" si="30"/>
+        <v>0.7151223672</v>
+      </c>
+      <c r="E73" s="8">
+        <f t="shared" si="30"/>
+        <v>0.6749814812</v>
+      </c>
+      <c r="F73" s="8">
+        <f t="shared" si="30"/>
+        <v>0.9158602513</v>
+      </c>
+      <c r="G73" s="8">
+        <f t="shared" si="30"/>
+        <v>0.6578753681</v>
+      </c>
+      <c r="H73" s="8">
+        <f t="shared" si="30"/>
+        <v>0.699642766</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="44">
+        <f t="shared" si="27"/>
+        <v>0.7357013813</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="28"/>
+        <v>0.0881327999</v>
+      </c>
+      <c r="N73" s="43">
+        <f t="shared" si="29"/>
+        <v>0.1197942564</v>
+      </c>
     </row>
     <row r="74">
-      <c r="G74" s="8"/>
+      <c r="A74" s="30"/>
+      <c r="N74" s="18"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" s="18"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="10">
+        <f t="shared" ref="B76:K76" si="31">(B71-$M76)/$M76</f>
+        <v>0.4597775031</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="31"/>
+        <v>0.3037330037</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="31"/>
+        <v>0.3258838072</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="31"/>
+        <v>0.4448454883</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="31"/>
+        <v>0.1555500618</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="31"/>
+        <v>0.6278368356</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="K76" s="10">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="M76" s="48">
+        <f t="shared" ref="M76:M78" si="33">MIN(B71:K71)</f>
+        <v>2022.5</v>
+      </c>
+      <c r="N76" s="18"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="10">
+        <f t="shared" ref="B77:K77" si="32">(B72-$M77)/$M77</f>
+        <v>0.1561922366</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" si="32"/>
+        <v>0.4022643253</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="32"/>
+        <v>0.1816081331</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="32"/>
+        <v>0.05268022181</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="32"/>
+        <v>0.938077634</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <f t="shared" si="32"/>
+        <v>0.1310073937</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="J77" s="10">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="K77" s="10">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="M77" s="40">
+        <f t="shared" si="33"/>
+        <v>0.4328</v>
+      </c>
+      <c r="N77" s="18"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="35">
+        <f t="shared" ref="B78:K78" si="34">(B73-$M78)/$M78</f>
+        <v>0.07526379861</v>
+      </c>
+      <c r="C78" s="35">
+        <f t="shared" si="34"/>
+        <v>0.1841724221</v>
+      </c>
+      <c r="D78" s="35">
+        <f t="shared" si="34"/>
+        <v>0.08701800035</v>
+      </c>
+      <c r="E78" s="35">
+        <f t="shared" si="34"/>
+        <v>0.02600205741</v>
+      </c>
+      <c r="F78" s="35">
+        <f t="shared" si="34"/>
+        <v>0.3921485675</v>
+      </c>
+      <c r="G78" s="35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="35">
+        <f t="shared" si="34"/>
+        <v>0.06348831386</v>
+      </c>
+      <c r="I78" s="35">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="J78" s="35">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="K78" s="35">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="L78" s="36"/>
+      <c r="M78" s="45">
+        <f t="shared" si="33"/>
+        <v>0.6578753681</v>
+      </c>
+      <c r="N78" s="37"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68 B76:K78">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68 B76:K78">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>"10%"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68 B76:K78">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>"10%"</formula>
       <formula>"30%"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68 B76:K78">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>"30%"</formula>
       <formula>"50%"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68">
+  <conditionalFormatting sqref="B16:H18 B37:H39 B55:H57 B66:K68 B76:K78">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>"50%"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink display="Selected Model" location="LargeLayers!B43:B47" ref="A59"/>
+    <hyperlink display="Selected Model" location="LargeLayers!B43:B47" ref="A69"/>
   </hyperlinks>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5028,7 +5147,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
@@ -5037,3108 +5159,3151 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2">
+        <f>SmallLayers!E8</f>
+        <v>12249</v>
+      </c>
+      <c r="C2" s="48">
+        <f>SmallLayers!E21</f>
+        <v>187.118347</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D11" si="1">0.15*C2</f>
+        <v>28.06775205</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <f>SmallLayers!F8</f>
+        <v>12414</v>
+      </c>
+      <c r="C3" s="48">
+        <f>SmallLayers!F21</f>
+        <v>246.386694</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="1"/>
+        <v>36.9580041</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <f>SmallLayers!C8</f>
+        <v>12894</v>
+      </c>
+      <c r="C4" s="48">
+        <f>SmallLayers!C21</f>
+        <v>259.622462</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>38.9433693</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
+        <f>SmallLayers!D8</f>
+        <v>13599</v>
+      </c>
+      <c r="C5" s="48">
+        <f>SmallLayers!D21</f>
+        <v>264.689815</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>39.70347225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
         <f>SmallLayers!B8</f>
         <v>14568</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C6" s="48">
         <f>SmallLayers!B21</f>
         <v>235.604274</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <f>SmallLayers!C8</f>
-        <v>12894</v>
-      </c>
-      <c r="C3" s="49">
-        <f>SmallLayers!C21</f>
-        <v>259.622462</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <f>SmallLayers!D8</f>
-        <v>13599</v>
-      </c>
-      <c r="C4" s="49">
-        <f>SmallLayers!D21</f>
-        <v>264.689815</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <f>SmallLayers!E8</f>
-        <v>12249</v>
-      </c>
-      <c r="C5" s="49">
-        <f>SmallLayers!E21</f>
-        <v>187.118347</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2">
-        <f>SmallLayers!F8</f>
-        <v>12414</v>
-      </c>
-      <c r="C6" s="49">
-        <f>SmallLayers!F21</f>
-        <v>246.386694</v>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>35.3406411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
+        <f>LargeLayers!D47</f>
+        <v>202413</v>
+      </c>
+      <c r="C7" s="48">
+        <f>LargeLayers!D50</f>
+        <v>402</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
         <f>LargeLayers!B47</f>
         <v>337683</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C8" s="48">
         <f>LargeLayers!B50</f>
         <v>525</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <f>LargeLayers!E47</f>
+        <v>389211</v>
+      </c>
+      <c r="C9" s="48">
+        <f>LargeLayers!E50</f>
+        <v>445</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2">
         <f>LargeLayers!C47</f>
         <v>866217</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C10" s="48">
         <f>LargeLayers!C50</f>
         <v>1029</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2">
-        <f>LargeLayers!D47</f>
-        <v>202413</v>
-      </c>
-      <c r="C9" s="49">
-        <f>LargeLayers!D50</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2">
-        <f>LargeLayers!E47</f>
-        <v>389211</v>
-      </c>
-      <c r="C10" s="49">
-        <f>LargeLayers!E50</f>
-        <v>445</v>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>154.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
         <f>LargeLayers!F47</f>
         <v>1019001</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <f>LargeLayers!F50</f>
         <v>1614</v>
       </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>242.1</v>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="49"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13">
-      <c r="C13" s="49"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14">
-      <c r="C14" s="49"/>
+      <c r="C14" s="48"/>
     </row>
     <row r="15">
-      <c r="C15" s="49"/>
+      <c r="C15" s="48"/>
     </row>
     <row r="16">
-      <c r="C16" s="49"/>
+      <c r="C16" s="48"/>
     </row>
     <row r="17">
-      <c r="C17" s="49"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="18">
-      <c r="C18" s="49"/>
+      <c r="C18" s="48"/>
     </row>
     <row r="19">
-      <c r="C19" s="49"/>
+      <c r="C19" s="48"/>
     </row>
     <row r="20">
-      <c r="C20" s="49"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21">
-      <c r="C21" s="49"/>
+      <c r="C21" s="48"/>
     </row>
     <row r="22">
-      <c r="C22" s="49"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23">
-      <c r="C23" s="49"/>
+      <c r="C23" s="48"/>
     </row>
     <row r="24">
-      <c r="C24" s="49"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25">
-      <c r="C25" s="49"/>
+      <c r="C25" s="48"/>
     </row>
     <row r="26">
-      <c r="C26" s="49"/>
+      <c r="C26" s="48"/>
     </row>
     <row r="27">
-      <c r="C27" s="49"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28">
-      <c r="C28" s="49"/>
+      <c r="C28" s="48"/>
     </row>
     <row r="29">
-      <c r="C29" s="49"/>
+      <c r="C29" s="48"/>
     </row>
     <row r="30">
-      <c r="C30" s="49"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="31">
-      <c r="C31" s="49"/>
+      <c r="C31" s="48"/>
     </row>
     <row r="32">
-      <c r="C32" s="49"/>
+      <c r="C32" s="48"/>
     </row>
     <row r="33">
-      <c r="C33" s="49"/>
+      <c r="C33" s="48"/>
     </row>
     <row r="34">
-      <c r="C34" s="49"/>
+      <c r="C34" s="48"/>
     </row>
     <row r="35">
-      <c r="C35" s="49"/>
+      <c r="C35" s="48"/>
     </row>
     <row r="36">
-      <c r="C36" s="49"/>
+      <c r="C36" s="48"/>
     </row>
     <row r="37">
-      <c r="C37" s="49"/>
+      <c r="C37" s="48"/>
     </row>
     <row r="38">
-      <c r="C38" s="49"/>
+      <c r="C38" s="48"/>
     </row>
     <row r="39">
-      <c r="C39" s="49"/>
+      <c r="C39" s="48"/>
     </row>
     <row r="40">
-      <c r="C40" s="49"/>
+      <c r="C40" s="48"/>
     </row>
     <row r="41">
-      <c r="C41" s="49"/>
+      <c r="C41" s="48"/>
     </row>
     <row r="42">
-      <c r="C42" s="49"/>
+      <c r="C42" s="48"/>
     </row>
     <row r="43">
-      <c r="C43" s="49"/>
+      <c r="C43" s="48"/>
     </row>
     <row r="44">
-      <c r="C44" s="49"/>
+      <c r="C44" s="48"/>
     </row>
     <row r="45">
-      <c r="C45" s="49"/>
+      <c r="C45" s="48"/>
     </row>
     <row r="46">
-      <c r="C46" s="49"/>
+      <c r="C46" s="48"/>
     </row>
     <row r="47">
-      <c r="C47" s="49"/>
+      <c r="C47" s="48"/>
     </row>
     <row r="48">
-      <c r="C48" s="49"/>
+      <c r="C48" s="48"/>
     </row>
     <row r="49">
-      <c r="C49" s="49"/>
+      <c r="C49" s="48"/>
     </row>
     <row r="50">
-      <c r="C50" s="49"/>
+      <c r="C50" s="48"/>
     </row>
     <row r="51">
-      <c r="C51" s="49"/>
+      <c r="C51" s="48"/>
     </row>
     <row r="52">
-      <c r="C52" s="49"/>
+      <c r="C52" s="48"/>
     </row>
     <row r="53">
-      <c r="C53" s="49"/>
+      <c r="C53" s="48"/>
     </row>
     <row r="54">
-      <c r="C54" s="49"/>
+      <c r="C54" s="48"/>
     </row>
     <row r="55">
-      <c r="C55" s="49"/>
+      <c r="C55" s="48"/>
     </row>
     <row r="56">
-      <c r="C56" s="49"/>
+      <c r="C56" s="48"/>
     </row>
     <row r="57">
-      <c r="C57" s="49"/>
+      <c r="C57" s="48"/>
     </row>
     <row r="58">
-      <c r="C58" s="49"/>
+      <c r="C58" s="48"/>
     </row>
     <row r="59">
-      <c r="C59" s="49"/>
+      <c r="C59" s="48"/>
     </row>
     <row r="60">
-      <c r="C60" s="49"/>
+      <c r="C60" s="48"/>
     </row>
     <row r="61">
-      <c r="C61" s="49"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62">
-      <c r="C62" s="49"/>
+      <c r="C62" s="48"/>
     </row>
     <row r="63">
-      <c r="C63" s="49"/>
+      <c r="C63" s="48"/>
     </row>
     <row r="64">
-      <c r="C64" s="49"/>
+      <c r="C64" s="48"/>
     </row>
     <row r="65">
-      <c r="C65" s="49"/>
+      <c r="C65" s="48"/>
     </row>
     <row r="66">
-      <c r="C66" s="49"/>
+      <c r="C66" s="48"/>
     </row>
     <row r="67">
-      <c r="C67" s="49"/>
+      <c r="C67" s="48"/>
     </row>
     <row r="68">
-      <c r="C68" s="49"/>
+      <c r="C68" s="48"/>
     </row>
     <row r="69">
-      <c r="C69" s="49"/>
+      <c r="C69" s="48"/>
     </row>
     <row r="70">
-      <c r="C70" s="49"/>
+      <c r="C70" s="48"/>
     </row>
     <row r="71">
-      <c r="C71" s="49"/>
+      <c r="C71" s="48"/>
     </row>
     <row r="72">
-      <c r="C72" s="49"/>
+      <c r="C72" s="48"/>
     </row>
     <row r="73">
-      <c r="C73" s="49"/>
+      <c r="C73" s="48"/>
     </row>
     <row r="74">
-      <c r="C74" s="49"/>
+      <c r="C74" s="48"/>
     </row>
     <row r="75">
-      <c r="C75" s="49"/>
+      <c r="C75" s="48"/>
     </row>
     <row r="76">
-      <c r="C76" s="49"/>
+      <c r="C76" s="48"/>
     </row>
     <row r="77">
-      <c r="C77" s="49"/>
+      <c r="C77" s="48"/>
     </row>
     <row r="78">
-      <c r="C78" s="49"/>
+      <c r="C78" s="48"/>
     </row>
     <row r="79">
-      <c r="C79" s="49"/>
+      <c r="C79" s="48"/>
     </row>
     <row r="80">
-      <c r="C80" s="49"/>
+      <c r="C80" s="48"/>
     </row>
     <row r="81">
-      <c r="C81" s="49"/>
+      <c r="C81" s="48"/>
     </row>
     <row r="82">
-      <c r="C82" s="49"/>
+      <c r="C82" s="48"/>
     </row>
     <row r="83">
-      <c r="C83" s="49"/>
+      <c r="C83" s="48"/>
     </row>
     <row r="84">
-      <c r="C84" s="49"/>
+      <c r="C84" s="48"/>
     </row>
     <row r="85">
-      <c r="C85" s="49"/>
+      <c r="C85" s="48"/>
     </row>
     <row r="86">
-      <c r="C86" s="49"/>
+      <c r="C86" s="48"/>
     </row>
     <row r="87">
-      <c r="C87" s="49"/>
+      <c r="C87" s="48"/>
     </row>
     <row r="88">
-      <c r="C88" s="49"/>
+      <c r="C88" s="48"/>
     </row>
     <row r="89">
-      <c r="C89" s="49"/>
+      <c r="C89" s="48"/>
     </row>
     <row r="90">
-      <c r="C90" s="49"/>
+      <c r="C90" s="48"/>
     </row>
     <row r="91">
-      <c r="C91" s="49"/>
+      <c r="C91" s="48"/>
     </row>
     <row r="92">
-      <c r="C92" s="49"/>
+      <c r="C92" s="48"/>
     </row>
     <row r="93">
-      <c r="C93" s="49"/>
+      <c r="C93" s="48"/>
     </row>
     <row r="94">
-      <c r="C94" s="49"/>
+      <c r="C94" s="48"/>
     </row>
     <row r="95">
-      <c r="C95" s="49"/>
+      <c r="C95" s="48"/>
     </row>
     <row r="96">
-      <c r="C96" s="49"/>
+      <c r="C96" s="48"/>
     </row>
     <row r="97">
-      <c r="C97" s="49"/>
+      <c r="C97" s="48"/>
     </row>
     <row r="98">
-      <c r="C98" s="49"/>
+      <c r="C98" s="48"/>
     </row>
     <row r="99">
-      <c r="C99" s="49"/>
+      <c r="C99" s="48"/>
     </row>
     <row r="100">
-      <c r="C100" s="49"/>
+      <c r="C100" s="48"/>
     </row>
     <row r="101">
-      <c r="C101" s="49"/>
+      <c r="C101" s="48"/>
     </row>
     <row r="102">
-      <c r="C102" s="49"/>
+      <c r="C102" s="48"/>
     </row>
     <row r="103">
-      <c r="C103" s="49"/>
+      <c r="C103" s="48"/>
     </row>
     <row r="104">
-      <c r="C104" s="49"/>
+      <c r="C104" s="48"/>
     </row>
     <row r="105">
-      <c r="C105" s="49"/>
+      <c r="C105" s="48"/>
     </row>
     <row r="106">
-      <c r="C106" s="49"/>
+      <c r="C106" s="48"/>
     </row>
     <row r="107">
-      <c r="C107" s="49"/>
+      <c r="C107" s="48"/>
     </row>
     <row r="108">
-      <c r="C108" s="49"/>
+      <c r="C108" s="48"/>
     </row>
     <row r="109">
-      <c r="C109" s="49"/>
+      <c r="C109" s="48"/>
     </row>
     <row r="110">
-      <c r="C110" s="49"/>
+      <c r="C110" s="48"/>
     </row>
     <row r="111">
-      <c r="C111" s="49"/>
+      <c r="C111" s="48"/>
     </row>
     <row r="112">
-      <c r="C112" s="49"/>
+      <c r="C112" s="48"/>
     </row>
     <row r="113">
-      <c r="C113" s="49"/>
+      <c r="C113" s="48"/>
     </row>
     <row r="114">
-      <c r="C114" s="49"/>
+      <c r="C114" s="48"/>
     </row>
     <row r="115">
-      <c r="C115" s="49"/>
+      <c r="C115" s="48"/>
     </row>
     <row r="116">
-      <c r="C116" s="49"/>
+      <c r="C116" s="48"/>
     </row>
     <row r="117">
-      <c r="C117" s="49"/>
+      <c r="C117" s="48"/>
     </row>
     <row r="118">
-      <c r="C118" s="49"/>
+      <c r="C118" s="48"/>
     </row>
     <row r="119">
-      <c r="C119" s="49"/>
+      <c r="C119" s="48"/>
     </row>
     <row r="120">
-      <c r="C120" s="49"/>
+      <c r="C120" s="48"/>
     </row>
     <row r="121">
-      <c r="C121" s="49"/>
+      <c r="C121" s="48"/>
     </row>
     <row r="122">
-      <c r="C122" s="49"/>
+      <c r="C122" s="48"/>
     </row>
     <row r="123">
-      <c r="C123" s="49"/>
+      <c r="C123" s="48"/>
     </row>
     <row r="124">
-      <c r="C124" s="49"/>
+      <c r="C124" s="48"/>
     </row>
     <row r="125">
-      <c r="C125" s="49"/>
+      <c r="C125" s="48"/>
     </row>
     <row r="126">
-      <c r="C126" s="49"/>
+      <c r="C126" s="48"/>
     </row>
     <row r="127">
-      <c r="C127" s="49"/>
+      <c r="C127" s="48"/>
     </row>
     <row r="128">
-      <c r="C128" s="49"/>
+      <c r="C128" s="48"/>
     </row>
     <row r="129">
-      <c r="C129" s="49"/>
+      <c r="C129" s="48"/>
     </row>
     <row r="130">
-      <c r="C130" s="49"/>
+      <c r="C130" s="48"/>
     </row>
     <row r="131">
-      <c r="C131" s="49"/>
+      <c r="C131" s="48"/>
     </row>
     <row r="132">
-      <c r="C132" s="49"/>
+      <c r="C132" s="48"/>
     </row>
     <row r="133">
-      <c r="C133" s="49"/>
+      <c r="C133" s="48"/>
     </row>
     <row r="134">
-      <c r="C134" s="49"/>
+      <c r="C134" s="48"/>
     </row>
     <row r="135">
-      <c r="C135" s="49"/>
+      <c r="C135" s="48"/>
     </row>
     <row r="136">
-      <c r="C136" s="49"/>
+      <c r="C136" s="48"/>
     </row>
     <row r="137">
-      <c r="C137" s="49"/>
+      <c r="C137" s="48"/>
     </row>
     <row r="138">
-      <c r="C138" s="49"/>
+      <c r="C138" s="48"/>
     </row>
     <row r="139">
-      <c r="C139" s="49"/>
+      <c r="C139" s="48"/>
     </row>
     <row r="140">
-      <c r="C140" s="49"/>
+      <c r="C140" s="48"/>
     </row>
     <row r="141">
-      <c r="C141" s="49"/>
+      <c r="C141" s="48"/>
     </row>
     <row r="142">
-      <c r="C142" s="49"/>
+      <c r="C142" s="48"/>
     </row>
     <row r="143">
-      <c r="C143" s="49"/>
+      <c r="C143" s="48"/>
     </row>
     <row r="144">
-      <c r="C144" s="49"/>
+      <c r="C144" s="48"/>
     </row>
     <row r="145">
-      <c r="C145" s="49"/>
+      <c r="C145" s="48"/>
     </row>
     <row r="146">
-      <c r="C146" s="49"/>
+      <c r="C146" s="48"/>
     </row>
     <row r="147">
-      <c r="C147" s="49"/>
+      <c r="C147" s="48"/>
     </row>
     <row r="148">
-      <c r="C148" s="49"/>
+      <c r="C148" s="48"/>
     </row>
     <row r="149">
-      <c r="C149" s="49"/>
+      <c r="C149" s="48"/>
     </row>
     <row r="150">
-      <c r="C150" s="49"/>
+      <c r="C150" s="48"/>
     </row>
     <row r="151">
-      <c r="C151" s="49"/>
+      <c r="C151" s="48"/>
     </row>
     <row r="152">
-      <c r="C152" s="49"/>
+      <c r="C152" s="48"/>
     </row>
     <row r="153">
-      <c r="C153" s="49"/>
+      <c r="C153" s="48"/>
     </row>
     <row r="154">
-      <c r="C154" s="49"/>
+      <c r="C154" s="48"/>
     </row>
     <row r="155">
-      <c r="C155" s="49"/>
+      <c r="C155" s="48"/>
     </row>
     <row r="156">
-      <c r="C156" s="49"/>
+      <c r="C156" s="48"/>
     </row>
     <row r="157">
-      <c r="C157" s="49"/>
+      <c r="C157" s="48"/>
     </row>
     <row r="158">
-      <c r="C158" s="49"/>
+      <c r="C158" s="48"/>
     </row>
     <row r="159">
-      <c r="C159" s="49"/>
+      <c r="C159" s="48"/>
     </row>
     <row r="160">
-      <c r="C160" s="49"/>
+      <c r="C160" s="48"/>
     </row>
     <row r="161">
-      <c r="C161" s="49"/>
+      <c r="C161" s="48"/>
     </row>
     <row r="162">
-      <c r="C162" s="49"/>
+      <c r="C162" s="48"/>
     </row>
     <row r="163">
-      <c r="C163" s="49"/>
+      <c r="C163" s="48"/>
     </row>
     <row r="164">
-      <c r="C164" s="49"/>
+      <c r="C164" s="48"/>
     </row>
     <row r="165">
-      <c r="C165" s="49"/>
+      <c r="C165" s="48"/>
     </row>
     <row r="166">
-      <c r="C166" s="49"/>
+      <c r="C166" s="48"/>
     </row>
     <row r="167">
-      <c r="C167" s="49"/>
+      <c r="C167" s="48"/>
     </row>
     <row r="168">
-      <c r="C168" s="49"/>
+      <c r="C168" s="48"/>
     </row>
     <row r="169">
-      <c r="C169" s="49"/>
+      <c r="C169" s="48"/>
     </row>
     <row r="170">
-      <c r="C170" s="49"/>
+      <c r="C170" s="48"/>
     </row>
     <row r="171">
-      <c r="C171" s="49"/>
+      <c r="C171" s="48"/>
     </row>
     <row r="172">
-      <c r="C172" s="49"/>
+      <c r="C172" s="48"/>
     </row>
     <row r="173">
-      <c r="C173" s="49"/>
+      <c r="C173" s="48"/>
     </row>
     <row r="174">
-      <c r="C174" s="49"/>
+      <c r="C174" s="48"/>
     </row>
     <row r="175">
-      <c r="C175" s="49"/>
+      <c r="C175" s="48"/>
     </row>
     <row r="176">
-      <c r="C176" s="49"/>
+      <c r="C176" s="48"/>
     </row>
     <row r="177">
-      <c r="C177" s="49"/>
+      <c r="C177" s="48"/>
     </row>
     <row r="178">
-      <c r="C178" s="49"/>
+      <c r="C178" s="48"/>
     </row>
     <row r="179">
-      <c r="C179" s="49"/>
+      <c r="C179" s="48"/>
     </row>
     <row r="180">
-      <c r="C180" s="49"/>
+      <c r="C180" s="48"/>
     </row>
     <row r="181">
-      <c r="C181" s="49"/>
+      <c r="C181" s="48"/>
     </row>
     <row r="182">
-      <c r="C182" s="49"/>
+      <c r="C182" s="48"/>
     </row>
     <row r="183">
-      <c r="C183" s="49"/>
+      <c r="C183" s="48"/>
     </row>
     <row r="184">
-      <c r="C184" s="49"/>
+      <c r="C184" s="48"/>
     </row>
     <row r="185">
-      <c r="C185" s="49"/>
+      <c r="C185" s="48"/>
     </row>
     <row r="186">
-      <c r="C186" s="49"/>
+      <c r="C186" s="48"/>
     </row>
     <row r="187">
-      <c r="C187" s="49"/>
+      <c r="C187" s="48"/>
     </row>
     <row r="188">
-      <c r="C188" s="49"/>
+      <c r="C188" s="48"/>
     </row>
     <row r="189">
-      <c r="C189" s="49"/>
+      <c r="C189" s="48"/>
     </row>
     <row r="190">
-      <c r="C190" s="49"/>
+      <c r="C190" s="48"/>
     </row>
     <row r="191">
-      <c r="C191" s="49"/>
+      <c r="C191" s="48"/>
     </row>
     <row r="192">
-      <c r="C192" s="49"/>
+      <c r="C192" s="48"/>
     </row>
     <row r="193">
-      <c r="C193" s="49"/>
+      <c r="C193" s="48"/>
     </row>
     <row r="194">
-      <c r="C194" s="49"/>
+      <c r="C194" s="48"/>
     </row>
     <row r="195">
-      <c r="C195" s="49"/>
+      <c r="C195" s="48"/>
     </row>
     <row r="196">
-      <c r="C196" s="49"/>
+      <c r="C196" s="48"/>
     </row>
     <row r="197">
-      <c r="C197" s="49"/>
+      <c r="C197" s="48"/>
     </row>
     <row r="198">
-      <c r="C198" s="49"/>
+      <c r="C198" s="48"/>
     </row>
     <row r="199">
-      <c r="C199" s="49"/>
+      <c r="C199" s="48"/>
     </row>
     <row r="200">
-      <c r="C200" s="49"/>
+      <c r="C200" s="48"/>
     </row>
     <row r="201">
-      <c r="C201" s="49"/>
+      <c r="C201" s="48"/>
     </row>
     <row r="202">
-      <c r="C202" s="49"/>
+      <c r="C202" s="48"/>
     </row>
     <row r="203">
-      <c r="C203" s="49"/>
+      <c r="C203" s="48"/>
     </row>
     <row r="204">
-      <c r="C204" s="49"/>
+      <c r="C204" s="48"/>
     </row>
     <row r="205">
-      <c r="C205" s="49"/>
+      <c r="C205" s="48"/>
     </row>
     <row r="206">
-      <c r="C206" s="49"/>
+      <c r="C206" s="48"/>
     </row>
     <row r="207">
-      <c r="C207" s="49"/>
+      <c r="C207" s="48"/>
     </row>
     <row r="208">
-      <c r="C208" s="49"/>
+      <c r="C208" s="48"/>
     </row>
     <row r="209">
-      <c r="C209" s="49"/>
+      <c r="C209" s="48"/>
     </row>
     <row r="210">
-      <c r="C210" s="49"/>
+      <c r="C210" s="48"/>
     </row>
     <row r="211">
-      <c r="C211" s="49"/>
+      <c r="C211" s="48"/>
     </row>
     <row r="212">
-      <c r="C212" s="49"/>
+      <c r="C212" s="48"/>
     </row>
     <row r="213">
-      <c r="C213" s="49"/>
+      <c r="C213" s="48"/>
     </row>
     <row r="214">
-      <c r="C214" s="49"/>
+      <c r="C214" s="48"/>
     </row>
     <row r="215">
-      <c r="C215" s="49"/>
+      <c r="C215" s="48"/>
     </row>
     <row r="216">
-      <c r="C216" s="49"/>
+      <c r="C216" s="48"/>
     </row>
     <row r="217">
-      <c r="C217" s="49"/>
+      <c r="C217" s="48"/>
     </row>
     <row r="218">
-      <c r="C218" s="49"/>
+      <c r="C218" s="48"/>
     </row>
     <row r="219">
-      <c r="C219" s="49"/>
+      <c r="C219" s="48"/>
     </row>
     <row r="220">
-      <c r="C220" s="49"/>
+      <c r="C220" s="48"/>
     </row>
     <row r="221">
-      <c r="C221" s="49"/>
+      <c r="C221" s="48"/>
     </row>
     <row r="222">
-      <c r="C222" s="49"/>
+      <c r="C222" s="48"/>
     </row>
     <row r="223">
-      <c r="C223" s="49"/>
+      <c r="C223" s="48"/>
     </row>
     <row r="224">
-      <c r="C224" s="49"/>
+      <c r="C224" s="48"/>
     </row>
     <row r="225">
-      <c r="C225" s="49"/>
+      <c r="C225" s="48"/>
     </row>
     <row r="226">
-      <c r="C226" s="49"/>
+      <c r="C226" s="48"/>
     </row>
     <row r="227">
-      <c r="C227" s="49"/>
+      <c r="C227" s="48"/>
     </row>
     <row r="228">
-      <c r="C228" s="49"/>
+      <c r="C228" s="48"/>
     </row>
     <row r="229">
-      <c r="C229" s="49"/>
+      <c r="C229" s="48"/>
     </row>
     <row r="230">
-      <c r="C230" s="49"/>
+      <c r="C230" s="48"/>
     </row>
     <row r="231">
-      <c r="C231" s="49"/>
+      <c r="C231" s="48"/>
     </row>
     <row r="232">
-      <c r="C232" s="49"/>
+      <c r="C232" s="48"/>
     </row>
     <row r="233">
-      <c r="C233" s="49"/>
+      <c r="C233" s="48"/>
     </row>
     <row r="234">
-      <c r="C234" s="49"/>
+      <c r="C234" s="48"/>
     </row>
     <row r="235">
-      <c r="C235" s="49"/>
+      <c r="C235" s="48"/>
     </row>
     <row r="236">
-      <c r="C236" s="49"/>
+      <c r="C236" s="48"/>
     </row>
     <row r="237">
-      <c r="C237" s="49"/>
+      <c r="C237" s="48"/>
     </row>
     <row r="238">
-      <c r="C238" s="49"/>
+      <c r="C238" s="48"/>
     </row>
     <row r="239">
-      <c r="C239" s="49"/>
+      <c r="C239" s="48"/>
     </row>
     <row r="240">
-      <c r="C240" s="49"/>
+      <c r="C240" s="48"/>
     </row>
     <row r="241">
-      <c r="C241" s="49"/>
+      <c r="C241" s="48"/>
     </row>
     <row r="242">
-      <c r="C242" s="49"/>
+      <c r="C242" s="48"/>
     </row>
     <row r="243">
-      <c r="C243" s="49"/>
+      <c r="C243" s="48"/>
     </row>
     <row r="244">
-      <c r="C244" s="49"/>
+      <c r="C244" s="48"/>
     </row>
     <row r="245">
-      <c r="C245" s="49"/>
+      <c r="C245" s="48"/>
     </row>
     <row r="246">
-      <c r="C246" s="49"/>
+      <c r="C246" s="48"/>
     </row>
     <row r="247">
-      <c r="C247" s="49"/>
+      <c r="C247" s="48"/>
     </row>
     <row r="248">
-      <c r="C248" s="49"/>
+      <c r="C248" s="48"/>
     </row>
     <row r="249">
-      <c r="C249" s="49"/>
+      <c r="C249" s="48"/>
     </row>
     <row r="250">
-      <c r="C250" s="49"/>
+      <c r="C250" s="48"/>
     </row>
     <row r="251">
-      <c r="C251" s="49"/>
+      <c r="C251" s="48"/>
     </row>
     <row r="252">
-      <c r="C252" s="49"/>
+      <c r="C252" s="48"/>
     </row>
     <row r="253">
-      <c r="C253" s="49"/>
+      <c r="C253" s="48"/>
     </row>
     <row r="254">
-      <c r="C254" s="49"/>
+      <c r="C254" s="48"/>
     </row>
     <row r="255">
-      <c r="C255" s="49"/>
+      <c r="C255" s="48"/>
     </row>
     <row r="256">
-      <c r="C256" s="49"/>
+      <c r="C256" s="48"/>
     </row>
     <row r="257">
-      <c r="C257" s="49"/>
+      <c r="C257" s="48"/>
     </row>
     <row r="258">
-      <c r="C258" s="49"/>
+      <c r="C258" s="48"/>
     </row>
     <row r="259">
-      <c r="C259" s="49"/>
+      <c r="C259" s="48"/>
     </row>
     <row r="260">
-      <c r="C260" s="49"/>
+      <c r="C260" s="48"/>
     </row>
     <row r="261">
-      <c r="C261" s="49"/>
+      <c r="C261" s="48"/>
     </row>
     <row r="262">
-      <c r="C262" s="49"/>
+      <c r="C262" s="48"/>
     </row>
     <row r="263">
-      <c r="C263" s="49"/>
+      <c r="C263" s="48"/>
     </row>
     <row r="264">
-      <c r="C264" s="49"/>
+      <c r="C264" s="48"/>
     </row>
     <row r="265">
-      <c r="C265" s="49"/>
+      <c r="C265" s="48"/>
     </row>
     <row r="266">
-      <c r="C266" s="49"/>
+      <c r="C266" s="48"/>
     </row>
     <row r="267">
-      <c r="C267" s="49"/>
+      <c r="C267" s="48"/>
     </row>
     <row r="268">
-      <c r="C268" s="49"/>
+      <c r="C268" s="48"/>
     </row>
     <row r="269">
-      <c r="C269" s="49"/>
+      <c r="C269" s="48"/>
     </row>
     <row r="270">
-      <c r="C270" s="49"/>
+      <c r="C270" s="48"/>
     </row>
     <row r="271">
-      <c r="C271" s="49"/>
+      <c r="C271" s="48"/>
     </row>
     <row r="272">
-      <c r="C272" s="49"/>
+      <c r="C272" s="48"/>
     </row>
     <row r="273">
-      <c r="C273" s="49"/>
+      <c r="C273" s="48"/>
     </row>
     <row r="274">
-      <c r="C274" s="49"/>
+      <c r="C274" s="48"/>
     </row>
     <row r="275">
-      <c r="C275" s="49"/>
+      <c r="C275" s="48"/>
     </row>
     <row r="276">
-      <c r="C276" s="49"/>
+      <c r="C276" s="48"/>
     </row>
     <row r="277">
-      <c r="C277" s="49"/>
+      <c r="C277" s="48"/>
     </row>
     <row r="278">
-      <c r="C278" s="49"/>
+      <c r="C278" s="48"/>
     </row>
     <row r="279">
-      <c r="C279" s="49"/>
+      <c r="C279" s="48"/>
     </row>
     <row r="280">
-      <c r="C280" s="49"/>
+      <c r="C280" s="48"/>
     </row>
     <row r="281">
-      <c r="C281" s="49"/>
+      <c r="C281" s="48"/>
     </row>
     <row r="282">
-      <c r="C282" s="49"/>
+      <c r="C282" s="48"/>
     </row>
     <row r="283">
-      <c r="C283" s="49"/>
+      <c r="C283" s="48"/>
     </row>
     <row r="284">
-      <c r="C284" s="49"/>
+      <c r="C284" s="48"/>
     </row>
     <row r="285">
-      <c r="C285" s="49"/>
+      <c r="C285" s="48"/>
     </row>
     <row r="286">
-      <c r="C286" s="49"/>
+      <c r="C286" s="48"/>
     </row>
     <row r="287">
-      <c r="C287" s="49"/>
+      <c r="C287" s="48"/>
     </row>
     <row r="288">
-      <c r="C288" s="49"/>
+      <c r="C288" s="48"/>
     </row>
     <row r="289">
-      <c r="C289" s="49"/>
+      <c r="C289" s="48"/>
     </row>
     <row r="290">
-      <c r="C290" s="49"/>
+      <c r="C290" s="48"/>
     </row>
     <row r="291">
-      <c r="C291" s="49"/>
+      <c r="C291" s="48"/>
     </row>
     <row r="292">
-      <c r="C292" s="49"/>
+      <c r="C292" s="48"/>
     </row>
     <row r="293">
-      <c r="C293" s="49"/>
+      <c r="C293" s="48"/>
     </row>
     <row r="294">
-      <c r="C294" s="49"/>
+      <c r="C294" s="48"/>
     </row>
     <row r="295">
-      <c r="C295" s="49"/>
+      <c r="C295" s="48"/>
     </row>
     <row r="296">
-      <c r="C296" s="49"/>
+      <c r="C296" s="48"/>
     </row>
     <row r="297">
-      <c r="C297" s="49"/>
+      <c r="C297" s="48"/>
     </row>
     <row r="298">
-      <c r="C298" s="49"/>
+      <c r="C298" s="48"/>
     </row>
     <row r="299">
-      <c r="C299" s="49"/>
+      <c r="C299" s="48"/>
     </row>
     <row r="300">
-      <c r="C300" s="49"/>
+      <c r="C300" s="48"/>
     </row>
     <row r="301">
-      <c r="C301" s="49"/>
+      <c r="C301" s="48"/>
     </row>
     <row r="302">
-      <c r="C302" s="49"/>
+      <c r="C302" s="48"/>
     </row>
     <row r="303">
-      <c r="C303" s="49"/>
+      <c r="C303" s="48"/>
     </row>
     <row r="304">
-      <c r="C304" s="49"/>
+      <c r="C304" s="48"/>
     </row>
     <row r="305">
-      <c r="C305" s="49"/>
+      <c r="C305" s="48"/>
     </row>
     <row r="306">
-      <c r="C306" s="49"/>
+      <c r="C306" s="48"/>
     </row>
     <row r="307">
-      <c r="C307" s="49"/>
+      <c r="C307" s="48"/>
     </row>
     <row r="308">
-      <c r="C308" s="49"/>
+      <c r="C308" s="48"/>
     </row>
     <row r="309">
-      <c r="C309" s="49"/>
+      <c r="C309" s="48"/>
     </row>
     <row r="310">
-      <c r="C310" s="49"/>
+      <c r="C310" s="48"/>
     </row>
     <row r="311">
-      <c r="C311" s="49"/>
+      <c r="C311" s="48"/>
     </row>
     <row r="312">
-      <c r="C312" s="49"/>
+      <c r="C312" s="48"/>
     </row>
     <row r="313">
-      <c r="C313" s="49"/>
+      <c r="C313" s="48"/>
     </row>
     <row r="314">
-      <c r="C314" s="49"/>
+      <c r="C314" s="48"/>
     </row>
     <row r="315">
-      <c r="C315" s="49"/>
+      <c r="C315" s="48"/>
     </row>
     <row r="316">
-      <c r="C316" s="49"/>
+      <c r="C316" s="48"/>
     </row>
     <row r="317">
-      <c r="C317" s="49"/>
+      <c r="C317" s="48"/>
     </row>
     <row r="318">
-      <c r="C318" s="49"/>
+      <c r="C318" s="48"/>
     </row>
     <row r="319">
-      <c r="C319" s="49"/>
+      <c r="C319" s="48"/>
     </row>
     <row r="320">
-      <c r="C320" s="49"/>
+      <c r="C320" s="48"/>
     </row>
     <row r="321">
-      <c r="C321" s="49"/>
+      <c r="C321" s="48"/>
     </row>
     <row r="322">
-      <c r="C322" s="49"/>
+      <c r="C322" s="48"/>
     </row>
     <row r="323">
-      <c r="C323" s="49"/>
+      <c r="C323" s="48"/>
     </row>
     <row r="324">
-      <c r="C324" s="49"/>
+      <c r="C324" s="48"/>
     </row>
     <row r="325">
-      <c r="C325" s="49"/>
+      <c r="C325" s="48"/>
     </row>
     <row r="326">
-      <c r="C326" s="49"/>
+      <c r="C326" s="48"/>
     </row>
     <row r="327">
-      <c r="C327" s="49"/>
+      <c r="C327" s="48"/>
     </row>
     <row r="328">
-      <c r="C328" s="49"/>
+      <c r="C328" s="48"/>
     </row>
     <row r="329">
-      <c r="C329" s="49"/>
+      <c r="C329" s="48"/>
     </row>
     <row r="330">
-      <c r="C330" s="49"/>
+      <c r="C330" s="48"/>
     </row>
     <row r="331">
-      <c r="C331" s="49"/>
+      <c r="C331" s="48"/>
     </row>
     <row r="332">
-      <c r="C332" s="49"/>
+      <c r="C332" s="48"/>
     </row>
     <row r="333">
-      <c r="C333" s="49"/>
+      <c r="C333" s="48"/>
     </row>
     <row r="334">
-      <c r="C334" s="49"/>
+      <c r="C334" s="48"/>
     </row>
     <row r="335">
-      <c r="C335" s="49"/>
+      <c r="C335" s="48"/>
     </row>
     <row r="336">
-      <c r="C336" s="49"/>
+      <c r="C336" s="48"/>
     </row>
     <row r="337">
-      <c r="C337" s="49"/>
+      <c r="C337" s="48"/>
     </row>
     <row r="338">
-      <c r="C338" s="49"/>
+      <c r="C338" s="48"/>
     </row>
     <row r="339">
-      <c r="C339" s="49"/>
+      <c r="C339" s="48"/>
     </row>
     <row r="340">
-      <c r="C340" s="49"/>
+      <c r="C340" s="48"/>
     </row>
     <row r="341">
-      <c r="C341" s="49"/>
+      <c r="C341" s="48"/>
     </row>
     <row r="342">
-      <c r="C342" s="49"/>
+      <c r="C342" s="48"/>
     </row>
     <row r="343">
-      <c r="C343" s="49"/>
+      <c r="C343" s="48"/>
     </row>
     <row r="344">
-      <c r="C344" s="49"/>
+      <c r="C344" s="48"/>
     </row>
     <row r="345">
-      <c r="C345" s="49"/>
+      <c r="C345" s="48"/>
     </row>
     <row r="346">
-      <c r="C346" s="49"/>
+      <c r="C346" s="48"/>
     </row>
     <row r="347">
-      <c r="C347" s="49"/>
+      <c r="C347" s="48"/>
     </row>
     <row r="348">
-      <c r="C348" s="49"/>
+      <c r="C348" s="48"/>
     </row>
     <row r="349">
-      <c r="C349" s="49"/>
+      <c r="C349" s="48"/>
     </row>
     <row r="350">
-      <c r="C350" s="49"/>
+      <c r="C350" s="48"/>
     </row>
     <row r="351">
-      <c r="C351" s="49"/>
+      <c r="C351" s="48"/>
     </row>
     <row r="352">
-      <c r="C352" s="49"/>
+      <c r="C352" s="48"/>
     </row>
     <row r="353">
-      <c r="C353" s="49"/>
+      <c r="C353" s="48"/>
     </row>
     <row r="354">
-      <c r="C354" s="49"/>
+      <c r="C354" s="48"/>
     </row>
     <row r="355">
-      <c r="C355" s="49"/>
+      <c r="C355" s="48"/>
     </row>
     <row r="356">
-      <c r="C356" s="49"/>
+      <c r="C356" s="48"/>
     </row>
     <row r="357">
-      <c r="C357" s="49"/>
+      <c r="C357" s="48"/>
     </row>
     <row r="358">
-      <c r="C358" s="49"/>
+      <c r="C358" s="48"/>
     </row>
     <row r="359">
-      <c r="C359" s="49"/>
+      <c r="C359" s="48"/>
     </row>
     <row r="360">
-      <c r="C360" s="49"/>
+      <c r="C360" s="48"/>
     </row>
     <row r="361">
-      <c r="C361" s="49"/>
+      <c r="C361" s="48"/>
     </row>
     <row r="362">
-      <c r="C362" s="49"/>
+      <c r="C362" s="48"/>
     </row>
     <row r="363">
-      <c r="C363" s="49"/>
+      <c r="C363" s="48"/>
     </row>
     <row r="364">
-      <c r="C364" s="49"/>
+      <c r="C364" s="48"/>
     </row>
     <row r="365">
-      <c r="C365" s="49"/>
+      <c r="C365" s="48"/>
     </row>
     <row r="366">
-      <c r="C366" s="49"/>
+      <c r="C366" s="48"/>
     </row>
     <row r="367">
-      <c r="C367" s="49"/>
+      <c r="C367" s="48"/>
     </row>
     <row r="368">
-      <c r="C368" s="49"/>
+      <c r="C368" s="48"/>
     </row>
     <row r="369">
-      <c r="C369" s="49"/>
+      <c r="C369" s="48"/>
     </row>
     <row r="370">
-      <c r="C370" s="49"/>
+      <c r="C370" s="48"/>
     </row>
     <row r="371">
-      <c r="C371" s="49"/>
+      <c r="C371" s="48"/>
     </row>
     <row r="372">
-      <c r="C372" s="49"/>
+      <c r="C372" s="48"/>
     </row>
     <row r="373">
-      <c r="C373" s="49"/>
+      <c r="C373" s="48"/>
     </row>
     <row r="374">
-      <c r="C374" s="49"/>
+      <c r="C374" s="48"/>
     </row>
     <row r="375">
-      <c r="C375" s="49"/>
+      <c r="C375" s="48"/>
     </row>
     <row r="376">
-      <c r="C376" s="49"/>
+      <c r="C376" s="48"/>
     </row>
     <row r="377">
-      <c r="C377" s="49"/>
+      <c r="C377" s="48"/>
     </row>
     <row r="378">
-      <c r="C378" s="49"/>
+      <c r="C378" s="48"/>
     </row>
     <row r="379">
-      <c r="C379" s="49"/>
+      <c r="C379" s="48"/>
     </row>
     <row r="380">
-      <c r="C380" s="49"/>
+      <c r="C380" s="48"/>
     </row>
     <row r="381">
-      <c r="C381" s="49"/>
+      <c r="C381" s="48"/>
     </row>
     <row r="382">
-      <c r="C382" s="49"/>
+      <c r="C382" s="48"/>
     </row>
     <row r="383">
-      <c r="C383" s="49"/>
+      <c r="C383" s="48"/>
     </row>
     <row r="384">
-      <c r="C384" s="49"/>
+      <c r="C384" s="48"/>
     </row>
     <row r="385">
-      <c r="C385" s="49"/>
+      <c r="C385" s="48"/>
     </row>
     <row r="386">
-      <c r="C386" s="49"/>
+      <c r="C386" s="48"/>
     </row>
     <row r="387">
-      <c r="C387" s="49"/>
+      <c r="C387" s="48"/>
     </row>
     <row r="388">
-      <c r="C388" s="49"/>
+      <c r="C388" s="48"/>
     </row>
     <row r="389">
-      <c r="C389" s="49"/>
+      <c r="C389" s="48"/>
     </row>
     <row r="390">
-      <c r="C390" s="49"/>
+      <c r="C390" s="48"/>
     </row>
     <row r="391">
-      <c r="C391" s="49"/>
+      <c r="C391" s="48"/>
     </row>
     <row r="392">
-      <c r="C392" s="49"/>
+      <c r="C392" s="48"/>
     </row>
     <row r="393">
-      <c r="C393" s="49"/>
+      <c r="C393" s="48"/>
     </row>
     <row r="394">
-      <c r="C394" s="49"/>
+      <c r="C394" s="48"/>
     </row>
     <row r="395">
-      <c r="C395" s="49"/>
+      <c r="C395" s="48"/>
     </row>
     <row r="396">
-      <c r="C396" s="49"/>
+      <c r="C396" s="48"/>
     </row>
     <row r="397">
-      <c r="C397" s="49"/>
+      <c r="C397" s="48"/>
     </row>
     <row r="398">
-      <c r="C398" s="49"/>
+      <c r="C398" s="48"/>
     </row>
     <row r="399">
-      <c r="C399" s="49"/>
+      <c r="C399" s="48"/>
     </row>
     <row r="400">
-      <c r="C400" s="49"/>
+      <c r="C400" s="48"/>
     </row>
     <row r="401">
-      <c r="C401" s="49"/>
+      <c r="C401" s="48"/>
     </row>
     <row r="402">
-      <c r="C402" s="49"/>
+      <c r="C402" s="48"/>
     </row>
     <row r="403">
-      <c r="C403" s="49"/>
+      <c r="C403" s="48"/>
     </row>
     <row r="404">
-      <c r="C404" s="49"/>
+      <c r="C404" s="48"/>
     </row>
     <row r="405">
-      <c r="C405" s="49"/>
+      <c r="C405" s="48"/>
     </row>
     <row r="406">
-      <c r="C406" s="49"/>
+      <c r="C406" s="48"/>
     </row>
     <row r="407">
-      <c r="C407" s="49"/>
+      <c r="C407" s="48"/>
     </row>
     <row r="408">
-      <c r="C408" s="49"/>
+      <c r="C408" s="48"/>
     </row>
     <row r="409">
-      <c r="C409" s="49"/>
+      <c r="C409" s="48"/>
     </row>
     <row r="410">
-      <c r="C410" s="49"/>
+      <c r="C410" s="48"/>
     </row>
     <row r="411">
-      <c r="C411" s="49"/>
+      <c r="C411" s="48"/>
     </row>
     <row r="412">
-      <c r="C412" s="49"/>
+      <c r="C412" s="48"/>
     </row>
     <row r="413">
-      <c r="C413" s="49"/>
+      <c r="C413" s="48"/>
     </row>
     <row r="414">
-      <c r="C414" s="49"/>
+      <c r="C414" s="48"/>
     </row>
     <row r="415">
-      <c r="C415" s="49"/>
+      <c r="C415" s="48"/>
     </row>
     <row r="416">
-      <c r="C416" s="49"/>
+      <c r="C416" s="48"/>
     </row>
     <row r="417">
-      <c r="C417" s="49"/>
+      <c r="C417" s="48"/>
     </row>
     <row r="418">
-      <c r="C418" s="49"/>
+      <c r="C418" s="48"/>
     </row>
     <row r="419">
-      <c r="C419" s="49"/>
+      <c r="C419" s="48"/>
     </row>
     <row r="420">
-      <c r="C420" s="49"/>
+      <c r="C420" s="48"/>
     </row>
     <row r="421">
-      <c r="C421" s="49"/>
+      <c r="C421" s="48"/>
     </row>
     <row r="422">
-      <c r="C422" s="49"/>
+      <c r="C422" s="48"/>
     </row>
     <row r="423">
-      <c r="C423" s="49"/>
+      <c r="C423" s="48"/>
     </row>
     <row r="424">
-      <c r="C424" s="49"/>
+      <c r="C424" s="48"/>
     </row>
     <row r="425">
-      <c r="C425" s="49"/>
+      <c r="C425" s="48"/>
     </row>
     <row r="426">
-      <c r="C426" s="49"/>
+      <c r="C426" s="48"/>
     </row>
     <row r="427">
-      <c r="C427" s="49"/>
+      <c r="C427" s="48"/>
     </row>
     <row r="428">
-      <c r="C428" s="49"/>
+      <c r="C428" s="48"/>
     </row>
     <row r="429">
-      <c r="C429" s="49"/>
+      <c r="C429" s="48"/>
     </row>
     <row r="430">
-      <c r="C430" s="49"/>
+      <c r="C430" s="48"/>
     </row>
     <row r="431">
-      <c r="C431" s="49"/>
+      <c r="C431" s="48"/>
     </row>
     <row r="432">
-      <c r="C432" s="49"/>
+      <c r="C432" s="48"/>
     </row>
     <row r="433">
-      <c r="C433" s="49"/>
+      <c r="C433" s="48"/>
     </row>
     <row r="434">
-      <c r="C434" s="49"/>
+      <c r="C434" s="48"/>
     </row>
     <row r="435">
-      <c r="C435" s="49"/>
+      <c r="C435" s="48"/>
     </row>
     <row r="436">
-      <c r="C436" s="49"/>
+      <c r="C436" s="48"/>
     </row>
     <row r="437">
-      <c r="C437" s="49"/>
+      <c r="C437" s="48"/>
     </row>
     <row r="438">
-      <c r="C438" s="49"/>
+      <c r="C438" s="48"/>
     </row>
     <row r="439">
-      <c r="C439" s="49"/>
+      <c r="C439" s="48"/>
     </row>
     <row r="440">
-      <c r="C440" s="49"/>
+      <c r="C440" s="48"/>
     </row>
     <row r="441">
-      <c r="C441" s="49"/>
+      <c r="C441" s="48"/>
     </row>
     <row r="442">
-      <c r="C442" s="49"/>
+      <c r="C442" s="48"/>
     </row>
     <row r="443">
-      <c r="C443" s="49"/>
+      <c r="C443" s="48"/>
     </row>
     <row r="444">
-      <c r="C444" s="49"/>
+      <c r="C444" s="48"/>
     </row>
     <row r="445">
-      <c r="C445" s="49"/>
+      <c r="C445" s="48"/>
     </row>
     <row r="446">
-      <c r="C446" s="49"/>
+      <c r="C446" s="48"/>
     </row>
     <row r="447">
-      <c r="C447" s="49"/>
+      <c r="C447" s="48"/>
     </row>
     <row r="448">
-      <c r="C448" s="49"/>
+      <c r="C448" s="48"/>
     </row>
     <row r="449">
-      <c r="C449" s="49"/>
+      <c r="C449" s="48"/>
     </row>
     <row r="450">
-      <c r="C450" s="49"/>
+      <c r="C450" s="48"/>
     </row>
     <row r="451">
-      <c r="C451" s="49"/>
+      <c r="C451" s="48"/>
     </row>
     <row r="452">
-      <c r="C452" s="49"/>
+      <c r="C452" s="48"/>
     </row>
     <row r="453">
-      <c r="C453" s="49"/>
+      <c r="C453" s="48"/>
     </row>
     <row r="454">
-      <c r="C454" s="49"/>
+      <c r="C454" s="48"/>
     </row>
     <row r="455">
-      <c r="C455" s="49"/>
+      <c r="C455" s="48"/>
     </row>
     <row r="456">
-      <c r="C456" s="49"/>
+      <c r="C456" s="48"/>
     </row>
     <row r="457">
-      <c r="C457" s="49"/>
+      <c r="C457" s="48"/>
     </row>
     <row r="458">
-      <c r="C458" s="49"/>
+      <c r="C458" s="48"/>
     </row>
     <row r="459">
-      <c r="C459" s="49"/>
+      <c r="C459" s="48"/>
     </row>
     <row r="460">
-      <c r="C460" s="49"/>
+      <c r="C460" s="48"/>
     </row>
     <row r="461">
-      <c r="C461" s="49"/>
+      <c r="C461" s="48"/>
     </row>
     <row r="462">
-      <c r="C462" s="49"/>
+      <c r="C462" s="48"/>
     </row>
     <row r="463">
-      <c r="C463" s="49"/>
+      <c r="C463" s="48"/>
     </row>
     <row r="464">
-      <c r="C464" s="49"/>
+      <c r="C464" s="48"/>
     </row>
     <row r="465">
-      <c r="C465" s="49"/>
+      <c r="C465" s="48"/>
     </row>
     <row r="466">
-      <c r="C466" s="49"/>
+      <c r="C466" s="48"/>
     </row>
     <row r="467">
-      <c r="C467" s="49"/>
+      <c r="C467" s="48"/>
     </row>
     <row r="468">
-      <c r="C468" s="49"/>
+      <c r="C468" s="48"/>
     </row>
     <row r="469">
-      <c r="C469" s="49"/>
+      <c r="C469" s="48"/>
     </row>
     <row r="470">
-      <c r="C470" s="49"/>
+      <c r="C470" s="48"/>
     </row>
     <row r="471">
-      <c r="C471" s="49"/>
+      <c r="C471" s="48"/>
     </row>
     <row r="472">
-      <c r="C472" s="49"/>
+      <c r="C472" s="48"/>
     </row>
     <row r="473">
-      <c r="C473" s="49"/>
+      <c r="C473" s="48"/>
     </row>
     <row r="474">
-      <c r="C474" s="49"/>
+      <c r="C474" s="48"/>
     </row>
     <row r="475">
-      <c r="C475" s="49"/>
+      <c r="C475" s="48"/>
     </row>
     <row r="476">
-      <c r="C476" s="49"/>
+      <c r="C476" s="48"/>
     </row>
     <row r="477">
-      <c r="C477" s="49"/>
+      <c r="C477" s="48"/>
     </row>
     <row r="478">
-      <c r="C478" s="49"/>
+      <c r="C478" s="48"/>
     </row>
     <row r="479">
-      <c r="C479" s="49"/>
+      <c r="C479" s="48"/>
     </row>
     <row r="480">
-      <c r="C480" s="49"/>
+      <c r="C480" s="48"/>
     </row>
     <row r="481">
-      <c r="C481" s="49"/>
+      <c r="C481" s="48"/>
     </row>
     <row r="482">
-      <c r="C482" s="49"/>
+      <c r="C482" s="48"/>
     </row>
     <row r="483">
-      <c r="C483" s="49"/>
+      <c r="C483" s="48"/>
     </row>
     <row r="484">
-      <c r="C484" s="49"/>
+      <c r="C484" s="48"/>
     </row>
     <row r="485">
-      <c r="C485" s="49"/>
+      <c r="C485" s="48"/>
     </row>
     <row r="486">
-      <c r="C486" s="49"/>
+      <c r="C486" s="48"/>
     </row>
     <row r="487">
-      <c r="C487" s="49"/>
+      <c r="C487" s="48"/>
     </row>
     <row r="488">
-      <c r="C488" s="49"/>
+      <c r="C488" s="48"/>
     </row>
     <row r="489">
-      <c r="C489" s="49"/>
+      <c r="C489" s="48"/>
     </row>
     <row r="490">
-      <c r="C490" s="49"/>
+      <c r="C490" s="48"/>
     </row>
     <row r="491">
-      <c r="C491" s="49"/>
+      <c r="C491" s="48"/>
     </row>
     <row r="492">
-      <c r="C492" s="49"/>
+      <c r="C492" s="48"/>
     </row>
     <row r="493">
-      <c r="C493" s="49"/>
+      <c r="C493" s="48"/>
     </row>
     <row r="494">
-      <c r="C494" s="49"/>
+      <c r="C494" s="48"/>
     </row>
     <row r="495">
-      <c r="C495" s="49"/>
+      <c r="C495" s="48"/>
     </row>
     <row r="496">
-      <c r="C496" s="49"/>
+      <c r="C496" s="48"/>
     </row>
     <row r="497">
-      <c r="C497" s="49"/>
+      <c r="C497" s="48"/>
     </row>
     <row r="498">
-      <c r="C498" s="49"/>
+      <c r="C498" s="48"/>
     </row>
     <row r="499">
-      <c r="C499" s="49"/>
+      <c r="C499" s="48"/>
     </row>
     <row r="500">
-      <c r="C500" s="49"/>
+      <c r="C500" s="48"/>
     </row>
     <row r="501">
-      <c r="C501" s="49"/>
+      <c r="C501" s="48"/>
     </row>
     <row r="502">
-      <c r="C502" s="49"/>
+      <c r="C502" s="48"/>
     </row>
     <row r="503">
-      <c r="C503" s="49"/>
+      <c r="C503" s="48"/>
     </row>
     <row r="504">
-      <c r="C504" s="49"/>
+      <c r="C504" s="48"/>
     </row>
     <row r="505">
-      <c r="C505" s="49"/>
+      <c r="C505" s="48"/>
     </row>
     <row r="506">
-      <c r="C506" s="49"/>
+      <c r="C506" s="48"/>
     </row>
     <row r="507">
-      <c r="C507" s="49"/>
+      <c r="C507" s="48"/>
     </row>
     <row r="508">
-      <c r="C508" s="49"/>
+      <c r="C508" s="48"/>
     </row>
     <row r="509">
-      <c r="C509" s="49"/>
+      <c r="C509" s="48"/>
     </row>
     <row r="510">
-      <c r="C510" s="49"/>
+      <c r="C510" s="48"/>
     </row>
     <row r="511">
-      <c r="C511" s="49"/>
+      <c r="C511" s="48"/>
     </row>
     <row r="512">
-      <c r="C512" s="49"/>
+      <c r="C512" s="48"/>
     </row>
     <row r="513">
-      <c r="C513" s="49"/>
+      <c r="C513" s="48"/>
     </row>
     <row r="514">
-      <c r="C514" s="49"/>
+      <c r="C514" s="48"/>
     </row>
     <row r="515">
-      <c r="C515" s="49"/>
+      <c r="C515" s="48"/>
     </row>
     <row r="516">
-      <c r="C516" s="49"/>
+      <c r="C516" s="48"/>
     </row>
     <row r="517">
-      <c r="C517" s="49"/>
+      <c r="C517" s="48"/>
     </row>
     <row r="518">
-      <c r="C518" s="49"/>
+      <c r="C518" s="48"/>
     </row>
     <row r="519">
-      <c r="C519" s="49"/>
+      <c r="C519" s="48"/>
     </row>
     <row r="520">
-      <c r="C520" s="49"/>
+      <c r="C520" s="48"/>
     </row>
     <row r="521">
-      <c r="C521" s="49"/>
+      <c r="C521" s="48"/>
     </row>
     <row r="522">
-      <c r="C522" s="49"/>
+      <c r="C522" s="48"/>
     </row>
     <row r="523">
-      <c r="C523" s="49"/>
+      <c r="C523" s="48"/>
     </row>
     <row r="524">
-      <c r="C524" s="49"/>
+      <c r="C524" s="48"/>
     </row>
     <row r="525">
-      <c r="C525" s="49"/>
+      <c r="C525" s="48"/>
     </row>
     <row r="526">
-      <c r="C526" s="49"/>
+      <c r="C526" s="48"/>
     </row>
     <row r="527">
-      <c r="C527" s="49"/>
+      <c r="C527" s="48"/>
     </row>
     <row r="528">
-      <c r="C528" s="49"/>
+      <c r="C528" s="48"/>
     </row>
     <row r="529">
-      <c r="C529" s="49"/>
+      <c r="C529" s="48"/>
     </row>
     <row r="530">
-      <c r="C530" s="49"/>
+      <c r="C530" s="48"/>
     </row>
     <row r="531">
-      <c r="C531" s="49"/>
+      <c r="C531" s="48"/>
     </row>
     <row r="532">
-      <c r="C532" s="49"/>
+      <c r="C532" s="48"/>
     </row>
     <row r="533">
-      <c r="C533" s="49"/>
+      <c r="C533" s="48"/>
     </row>
     <row r="534">
-      <c r="C534" s="49"/>
+      <c r="C534" s="48"/>
     </row>
     <row r="535">
-      <c r="C535" s="49"/>
+      <c r="C535" s="48"/>
     </row>
     <row r="536">
-      <c r="C536" s="49"/>
+      <c r="C536" s="48"/>
     </row>
     <row r="537">
-      <c r="C537" s="49"/>
+      <c r="C537" s="48"/>
     </row>
     <row r="538">
-      <c r="C538" s="49"/>
+      <c r="C538" s="48"/>
     </row>
     <row r="539">
-      <c r="C539" s="49"/>
+      <c r="C539" s="48"/>
     </row>
     <row r="540">
-      <c r="C540" s="49"/>
+      <c r="C540" s="48"/>
     </row>
     <row r="541">
-      <c r="C541" s="49"/>
+      <c r="C541" s="48"/>
     </row>
     <row r="542">
-      <c r="C542" s="49"/>
+      <c r="C542" s="48"/>
     </row>
     <row r="543">
-      <c r="C543" s="49"/>
+      <c r="C543" s="48"/>
     </row>
     <row r="544">
-      <c r="C544" s="49"/>
+      <c r="C544" s="48"/>
     </row>
     <row r="545">
-      <c r="C545" s="49"/>
+      <c r="C545" s="48"/>
     </row>
     <row r="546">
-      <c r="C546" s="49"/>
+      <c r="C546" s="48"/>
     </row>
     <row r="547">
-      <c r="C547" s="49"/>
+      <c r="C547" s="48"/>
     </row>
     <row r="548">
-      <c r="C548" s="49"/>
+      <c r="C548" s="48"/>
     </row>
     <row r="549">
-      <c r="C549" s="49"/>
+      <c r="C549" s="48"/>
     </row>
     <row r="550">
-      <c r="C550" s="49"/>
+      <c r="C550" s="48"/>
     </row>
     <row r="551">
-      <c r="C551" s="49"/>
+      <c r="C551" s="48"/>
     </row>
     <row r="552">
-      <c r="C552" s="49"/>
+      <c r="C552" s="48"/>
     </row>
     <row r="553">
-      <c r="C553" s="49"/>
+      <c r="C553" s="48"/>
     </row>
     <row r="554">
-      <c r="C554" s="49"/>
+      <c r="C554" s="48"/>
     </row>
     <row r="555">
-      <c r="C555" s="49"/>
+      <c r="C555" s="48"/>
     </row>
     <row r="556">
-      <c r="C556" s="49"/>
+      <c r="C556" s="48"/>
     </row>
     <row r="557">
-      <c r="C557" s="49"/>
+      <c r="C557" s="48"/>
     </row>
     <row r="558">
-      <c r="C558" s="49"/>
+      <c r="C558" s="48"/>
     </row>
     <row r="559">
-      <c r="C559" s="49"/>
+      <c r="C559" s="48"/>
     </row>
     <row r="560">
-      <c r="C560" s="49"/>
+      <c r="C560" s="48"/>
     </row>
     <row r="561">
-      <c r="C561" s="49"/>
+      <c r="C561" s="48"/>
     </row>
     <row r="562">
-      <c r="C562" s="49"/>
+      <c r="C562" s="48"/>
     </row>
     <row r="563">
-      <c r="C563" s="49"/>
+      <c r="C563" s="48"/>
     </row>
     <row r="564">
-      <c r="C564" s="49"/>
+      <c r="C564" s="48"/>
     </row>
     <row r="565">
-      <c r="C565" s="49"/>
+      <c r="C565" s="48"/>
     </row>
     <row r="566">
-      <c r="C566" s="49"/>
+      <c r="C566" s="48"/>
     </row>
     <row r="567">
-      <c r="C567" s="49"/>
+      <c r="C567" s="48"/>
     </row>
     <row r="568">
-      <c r="C568" s="49"/>
+      <c r="C568" s="48"/>
     </row>
     <row r="569">
-      <c r="C569" s="49"/>
+      <c r="C569" s="48"/>
     </row>
     <row r="570">
-      <c r="C570" s="49"/>
+      <c r="C570" s="48"/>
     </row>
     <row r="571">
-      <c r="C571" s="49"/>
+      <c r="C571" s="48"/>
     </row>
     <row r="572">
-      <c r="C572" s="49"/>
+      <c r="C572" s="48"/>
     </row>
     <row r="573">
-      <c r="C573" s="49"/>
+      <c r="C573" s="48"/>
     </row>
     <row r="574">
-      <c r="C574" s="49"/>
+      <c r="C574" s="48"/>
     </row>
     <row r="575">
-      <c r="C575" s="49"/>
+      <c r="C575" s="48"/>
     </row>
     <row r="576">
-      <c r="C576" s="49"/>
+      <c r="C576" s="48"/>
     </row>
     <row r="577">
-      <c r="C577" s="49"/>
+      <c r="C577" s="48"/>
     </row>
     <row r="578">
-      <c r="C578" s="49"/>
+      <c r="C578" s="48"/>
     </row>
     <row r="579">
-      <c r="C579" s="49"/>
+      <c r="C579" s="48"/>
     </row>
     <row r="580">
-      <c r="C580" s="49"/>
+      <c r="C580" s="48"/>
     </row>
     <row r="581">
-      <c r="C581" s="49"/>
+      <c r="C581" s="48"/>
     </row>
     <row r="582">
-      <c r="C582" s="49"/>
+      <c r="C582" s="48"/>
     </row>
     <row r="583">
-      <c r="C583" s="49"/>
+      <c r="C583" s="48"/>
     </row>
     <row r="584">
-      <c r="C584" s="49"/>
+      <c r="C584" s="48"/>
     </row>
     <row r="585">
-      <c r="C585" s="49"/>
+      <c r="C585" s="48"/>
     </row>
     <row r="586">
-      <c r="C586" s="49"/>
+      <c r="C586" s="48"/>
     </row>
     <row r="587">
-      <c r="C587" s="49"/>
+      <c r="C587" s="48"/>
     </row>
     <row r="588">
-      <c r="C588" s="49"/>
+      <c r="C588" s="48"/>
     </row>
     <row r="589">
-      <c r="C589" s="49"/>
+      <c r="C589" s="48"/>
     </row>
     <row r="590">
-      <c r="C590" s="49"/>
+      <c r="C590" s="48"/>
     </row>
     <row r="591">
-      <c r="C591" s="49"/>
+      <c r="C591" s="48"/>
     </row>
     <row r="592">
-      <c r="C592" s="49"/>
+      <c r="C592" s="48"/>
     </row>
     <row r="593">
-      <c r="C593" s="49"/>
+      <c r="C593" s="48"/>
     </row>
     <row r="594">
-      <c r="C594" s="49"/>
+      <c r="C594" s="48"/>
     </row>
     <row r="595">
-      <c r="C595" s="49"/>
+      <c r="C595" s="48"/>
     </row>
     <row r="596">
-      <c r="C596" s="49"/>
+      <c r="C596" s="48"/>
     </row>
     <row r="597">
-      <c r="C597" s="49"/>
+      <c r="C597" s="48"/>
     </row>
     <row r="598">
-      <c r="C598" s="49"/>
+      <c r="C598" s="48"/>
     </row>
     <row r="599">
-      <c r="C599" s="49"/>
+      <c r="C599" s="48"/>
     </row>
     <row r="600">
-      <c r="C600" s="49"/>
+      <c r="C600" s="48"/>
     </row>
     <row r="601">
-      <c r="C601" s="49"/>
+      <c r="C601" s="48"/>
     </row>
     <row r="602">
-      <c r="C602" s="49"/>
+      <c r="C602" s="48"/>
     </row>
     <row r="603">
-      <c r="C603" s="49"/>
+      <c r="C603" s="48"/>
     </row>
     <row r="604">
-      <c r="C604" s="49"/>
+      <c r="C604" s="48"/>
     </row>
     <row r="605">
-      <c r="C605" s="49"/>
+      <c r="C605" s="48"/>
     </row>
     <row r="606">
-      <c r="C606" s="49"/>
+      <c r="C606" s="48"/>
     </row>
     <row r="607">
-      <c r="C607" s="49"/>
+      <c r="C607" s="48"/>
     </row>
     <row r="608">
-      <c r="C608" s="49"/>
+      <c r="C608" s="48"/>
     </row>
     <row r="609">
-      <c r="C609" s="49"/>
+      <c r="C609" s="48"/>
     </row>
     <row r="610">
-      <c r="C610" s="49"/>
+      <c r="C610" s="48"/>
     </row>
     <row r="611">
-      <c r="C611" s="49"/>
+      <c r="C611" s="48"/>
     </row>
     <row r="612">
-      <c r="C612" s="49"/>
+      <c r="C612" s="48"/>
     </row>
     <row r="613">
-      <c r="C613" s="49"/>
+      <c r="C613" s="48"/>
     </row>
     <row r="614">
-      <c r="C614" s="49"/>
+      <c r="C614" s="48"/>
     </row>
     <row r="615">
-      <c r="C615" s="49"/>
+      <c r="C615" s="48"/>
     </row>
     <row r="616">
-      <c r="C616" s="49"/>
+      <c r="C616" s="48"/>
     </row>
     <row r="617">
-      <c r="C617" s="49"/>
+      <c r="C617" s="48"/>
     </row>
     <row r="618">
-      <c r="C618" s="49"/>
+      <c r="C618" s="48"/>
     </row>
     <row r="619">
-      <c r="C619" s="49"/>
+      <c r="C619" s="48"/>
     </row>
     <row r="620">
-      <c r="C620" s="49"/>
+      <c r="C620" s="48"/>
     </row>
     <row r="621">
-      <c r="C621" s="49"/>
+      <c r="C621" s="48"/>
     </row>
     <row r="622">
-      <c r="C622" s="49"/>
+      <c r="C622" s="48"/>
     </row>
     <row r="623">
-      <c r="C623" s="49"/>
+      <c r="C623" s="48"/>
     </row>
     <row r="624">
-      <c r="C624" s="49"/>
+      <c r="C624" s="48"/>
     </row>
     <row r="625">
-      <c r="C625" s="49"/>
+      <c r="C625" s="48"/>
     </row>
     <row r="626">
-      <c r="C626" s="49"/>
+      <c r="C626" s="48"/>
     </row>
     <row r="627">
-      <c r="C627" s="49"/>
+      <c r="C627" s="48"/>
     </row>
     <row r="628">
-      <c r="C628" s="49"/>
+      <c r="C628" s="48"/>
     </row>
     <row r="629">
-      <c r="C629" s="49"/>
+      <c r="C629" s="48"/>
     </row>
     <row r="630">
-      <c r="C630" s="49"/>
+      <c r="C630" s="48"/>
     </row>
     <row r="631">
-      <c r="C631" s="49"/>
+      <c r="C631" s="48"/>
     </row>
     <row r="632">
-      <c r="C632" s="49"/>
+      <c r="C632" s="48"/>
     </row>
     <row r="633">
-      <c r="C633" s="49"/>
+      <c r="C633" s="48"/>
     </row>
     <row r="634">
-      <c r="C634" s="49"/>
+      <c r="C634" s="48"/>
     </row>
     <row r="635">
-      <c r="C635" s="49"/>
+      <c r="C635" s="48"/>
     </row>
     <row r="636">
-      <c r="C636" s="49"/>
+      <c r="C636" s="48"/>
     </row>
     <row r="637">
-      <c r="C637" s="49"/>
+      <c r="C637" s="48"/>
     </row>
     <row r="638">
-      <c r="C638" s="49"/>
+      <c r="C638" s="48"/>
     </row>
     <row r="639">
-      <c r="C639" s="49"/>
+      <c r="C639" s="48"/>
     </row>
     <row r="640">
-      <c r="C640" s="49"/>
+      <c r="C640" s="48"/>
     </row>
     <row r="641">
-      <c r="C641" s="49"/>
+      <c r="C641" s="48"/>
     </row>
     <row r="642">
-      <c r="C642" s="49"/>
+      <c r="C642" s="48"/>
     </row>
     <row r="643">
-      <c r="C643" s="49"/>
+      <c r="C643" s="48"/>
     </row>
     <row r="644">
-      <c r="C644" s="49"/>
+      <c r="C644" s="48"/>
     </row>
     <row r="645">
-      <c r="C645" s="49"/>
+      <c r="C645" s="48"/>
     </row>
     <row r="646">
-      <c r="C646" s="49"/>
+      <c r="C646" s="48"/>
     </row>
     <row r="647">
-      <c r="C647" s="49"/>
+      <c r="C647" s="48"/>
     </row>
     <row r="648">
-      <c r="C648" s="49"/>
+      <c r="C648" s="48"/>
     </row>
     <row r="649">
-      <c r="C649" s="49"/>
+      <c r="C649" s="48"/>
     </row>
     <row r="650">
-      <c r="C650" s="49"/>
+      <c r="C650" s="48"/>
     </row>
     <row r="651">
-      <c r="C651" s="49"/>
+      <c r="C651" s="48"/>
     </row>
     <row r="652">
-      <c r="C652" s="49"/>
+      <c r="C652" s="48"/>
     </row>
     <row r="653">
-      <c r="C653" s="49"/>
+      <c r="C653" s="48"/>
     </row>
     <row r="654">
-      <c r="C654" s="49"/>
+      <c r="C654" s="48"/>
     </row>
     <row r="655">
-      <c r="C655" s="49"/>
+      <c r="C655" s="48"/>
     </row>
     <row r="656">
-      <c r="C656" s="49"/>
+      <c r="C656" s="48"/>
     </row>
     <row r="657">
-      <c r="C657" s="49"/>
+      <c r="C657" s="48"/>
     </row>
     <row r="658">
-      <c r="C658" s="49"/>
+      <c r="C658" s="48"/>
     </row>
     <row r="659">
-      <c r="C659" s="49"/>
+      <c r="C659" s="48"/>
     </row>
     <row r="660">
-      <c r="C660" s="49"/>
+      <c r="C660" s="48"/>
     </row>
     <row r="661">
-      <c r="C661" s="49"/>
+      <c r="C661" s="48"/>
     </row>
     <row r="662">
-      <c r="C662" s="49"/>
+      <c r="C662" s="48"/>
     </row>
     <row r="663">
-      <c r="C663" s="49"/>
+      <c r="C663" s="48"/>
     </row>
     <row r="664">
-      <c r="C664" s="49"/>
+      <c r="C664" s="48"/>
     </row>
     <row r="665">
-      <c r="C665" s="49"/>
+      <c r="C665" s="48"/>
     </row>
     <row r="666">
-      <c r="C666" s="49"/>
+      <c r="C666" s="48"/>
     </row>
     <row r="667">
-      <c r="C667" s="49"/>
+      <c r="C667" s="48"/>
     </row>
     <row r="668">
-      <c r="C668" s="49"/>
+      <c r="C668" s="48"/>
     </row>
     <row r="669">
-      <c r="C669" s="49"/>
+      <c r="C669" s="48"/>
     </row>
     <row r="670">
-      <c r="C670" s="49"/>
+      <c r="C670" s="48"/>
     </row>
     <row r="671">
-      <c r="C671" s="49"/>
+      <c r="C671" s="48"/>
     </row>
     <row r="672">
-      <c r="C672" s="49"/>
+      <c r="C672" s="48"/>
     </row>
     <row r="673">
-      <c r="C673" s="49"/>
+      <c r="C673" s="48"/>
     </row>
     <row r="674">
-      <c r="C674" s="49"/>
+      <c r="C674" s="48"/>
     </row>
     <row r="675">
-      <c r="C675" s="49"/>
+      <c r="C675" s="48"/>
     </row>
     <row r="676">
-      <c r="C676" s="49"/>
+      <c r="C676" s="48"/>
     </row>
     <row r="677">
-      <c r="C677" s="49"/>
+      <c r="C677" s="48"/>
     </row>
     <row r="678">
-      <c r="C678" s="49"/>
+      <c r="C678" s="48"/>
     </row>
     <row r="679">
-      <c r="C679" s="49"/>
+      <c r="C679" s="48"/>
     </row>
     <row r="680">
-      <c r="C680" s="49"/>
+      <c r="C680" s="48"/>
     </row>
     <row r="681">
-      <c r="C681" s="49"/>
+      <c r="C681" s="48"/>
     </row>
     <row r="682">
-      <c r="C682" s="49"/>
+      <c r="C682" s="48"/>
     </row>
     <row r="683">
-      <c r="C683" s="49"/>
+      <c r="C683" s="48"/>
     </row>
     <row r="684">
-      <c r="C684" s="49"/>
+      <c r="C684" s="48"/>
     </row>
     <row r="685">
-      <c r="C685" s="49"/>
+      <c r="C685" s="48"/>
     </row>
     <row r="686">
-      <c r="C686" s="49"/>
+      <c r="C686" s="48"/>
     </row>
     <row r="687">
-      <c r="C687" s="49"/>
+      <c r="C687" s="48"/>
     </row>
     <row r="688">
-      <c r="C688" s="49"/>
+      <c r="C688" s="48"/>
     </row>
     <row r="689">
-      <c r="C689" s="49"/>
+      <c r="C689" s="48"/>
     </row>
     <row r="690">
-      <c r="C690" s="49"/>
+      <c r="C690" s="48"/>
     </row>
     <row r="691">
-      <c r="C691" s="49"/>
+      <c r="C691" s="48"/>
     </row>
     <row r="692">
-      <c r="C692" s="49"/>
+      <c r="C692" s="48"/>
     </row>
     <row r="693">
-      <c r="C693" s="49"/>
+      <c r="C693" s="48"/>
     </row>
     <row r="694">
-      <c r="C694" s="49"/>
+      <c r="C694" s="48"/>
     </row>
     <row r="695">
-      <c r="C695" s="49"/>
+      <c r="C695" s="48"/>
     </row>
     <row r="696">
-      <c r="C696" s="49"/>
+      <c r="C696" s="48"/>
     </row>
     <row r="697">
-      <c r="C697" s="49"/>
+      <c r="C697" s="48"/>
     </row>
     <row r="698">
-      <c r="C698" s="49"/>
+      <c r="C698" s="48"/>
     </row>
     <row r="699">
-      <c r="C699" s="49"/>
+      <c r="C699" s="48"/>
     </row>
     <row r="700">
-      <c r="C700" s="49"/>
+      <c r="C700" s="48"/>
     </row>
     <row r="701">
-      <c r="C701" s="49"/>
+      <c r="C701" s="48"/>
     </row>
     <row r="702">
-      <c r="C702" s="49"/>
+      <c r="C702" s="48"/>
     </row>
     <row r="703">
-      <c r="C703" s="49"/>
+      <c r="C703" s="48"/>
     </row>
     <row r="704">
-      <c r="C704" s="49"/>
+      <c r="C704" s="48"/>
     </row>
     <row r="705">
-      <c r="C705" s="49"/>
+      <c r="C705" s="48"/>
     </row>
     <row r="706">
-      <c r="C706" s="49"/>
+      <c r="C706" s="48"/>
     </row>
     <row r="707">
-      <c r="C707" s="49"/>
+      <c r="C707" s="48"/>
     </row>
     <row r="708">
-      <c r="C708" s="49"/>
+      <c r="C708" s="48"/>
     </row>
     <row r="709">
-      <c r="C709" s="49"/>
+      <c r="C709" s="48"/>
     </row>
     <row r="710">
-      <c r="C710" s="49"/>
+      <c r="C710" s="48"/>
     </row>
     <row r="711">
-      <c r="C711" s="49"/>
+      <c r="C711" s="48"/>
     </row>
     <row r="712">
-      <c r="C712" s="49"/>
+      <c r="C712" s="48"/>
     </row>
     <row r="713">
-      <c r="C713" s="49"/>
+      <c r="C713" s="48"/>
     </row>
     <row r="714">
-      <c r="C714" s="49"/>
+      <c r="C714" s="48"/>
     </row>
     <row r="715">
-      <c r="C715" s="49"/>
+      <c r="C715" s="48"/>
     </row>
     <row r="716">
-      <c r="C716" s="49"/>
+      <c r="C716" s="48"/>
     </row>
     <row r="717">
-      <c r="C717" s="49"/>
+      <c r="C717" s="48"/>
     </row>
     <row r="718">
-      <c r="C718" s="49"/>
+      <c r="C718" s="48"/>
     </row>
     <row r="719">
-      <c r="C719" s="49"/>
+      <c r="C719" s="48"/>
     </row>
     <row r="720">
-      <c r="C720" s="49"/>
+      <c r="C720" s="48"/>
     </row>
     <row r="721">
-      <c r="C721" s="49"/>
+      <c r="C721" s="48"/>
     </row>
     <row r="722">
-      <c r="C722" s="49"/>
+      <c r="C722" s="48"/>
     </row>
     <row r="723">
-      <c r="C723" s="49"/>
+      <c r="C723" s="48"/>
     </row>
     <row r="724">
-      <c r="C724" s="49"/>
+      <c r="C724" s="48"/>
     </row>
     <row r="725">
-      <c r="C725" s="49"/>
+      <c r="C725" s="48"/>
     </row>
     <row r="726">
-      <c r="C726" s="49"/>
+      <c r="C726" s="48"/>
     </row>
     <row r="727">
-      <c r="C727" s="49"/>
+      <c r="C727" s="48"/>
     </row>
     <row r="728">
-      <c r="C728" s="49"/>
+      <c r="C728" s="48"/>
     </row>
     <row r="729">
-      <c r="C729" s="49"/>
+      <c r="C729" s="48"/>
     </row>
     <row r="730">
-      <c r="C730" s="49"/>
+      <c r="C730" s="48"/>
     </row>
     <row r="731">
-      <c r="C731" s="49"/>
+      <c r="C731" s="48"/>
     </row>
     <row r="732">
-      <c r="C732" s="49"/>
+      <c r="C732" s="48"/>
     </row>
     <row r="733">
-      <c r="C733" s="49"/>
+      <c r="C733" s="48"/>
     </row>
     <row r="734">
-      <c r="C734" s="49"/>
+      <c r="C734" s="48"/>
     </row>
     <row r="735">
-      <c r="C735" s="49"/>
+      <c r="C735" s="48"/>
     </row>
     <row r="736">
-      <c r="C736" s="49"/>
+      <c r="C736" s="48"/>
     </row>
     <row r="737">
-      <c r="C737" s="49"/>
+      <c r="C737" s="48"/>
     </row>
     <row r="738">
-      <c r="C738" s="49"/>
+      <c r="C738" s="48"/>
     </row>
     <row r="739">
-      <c r="C739" s="49"/>
+      <c r="C739" s="48"/>
     </row>
     <row r="740">
-      <c r="C740" s="49"/>
+      <c r="C740" s="48"/>
     </row>
     <row r="741">
-      <c r="C741" s="49"/>
+      <c r="C741" s="48"/>
     </row>
     <row r="742">
-      <c r="C742" s="49"/>
+      <c r="C742" s="48"/>
     </row>
     <row r="743">
-      <c r="C743" s="49"/>
+      <c r="C743" s="48"/>
     </row>
     <row r="744">
-      <c r="C744" s="49"/>
+      <c r="C744" s="48"/>
     </row>
     <row r="745">
-      <c r="C745" s="49"/>
+      <c r="C745" s="48"/>
     </row>
     <row r="746">
-      <c r="C746" s="49"/>
+      <c r="C746" s="48"/>
     </row>
     <row r="747">
-      <c r="C747" s="49"/>
+      <c r="C747" s="48"/>
     </row>
     <row r="748">
-      <c r="C748" s="49"/>
+      <c r="C748" s="48"/>
     </row>
     <row r="749">
-      <c r="C749" s="49"/>
+      <c r="C749" s="48"/>
     </row>
     <row r="750">
-      <c r="C750" s="49"/>
+      <c r="C750" s="48"/>
     </row>
     <row r="751">
-      <c r="C751" s="49"/>
+      <c r="C751" s="48"/>
     </row>
     <row r="752">
-      <c r="C752" s="49"/>
+      <c r="C752" s="48"/>
     </row>
     <row r="753">
-      <c r="C753" s="49"/>
+      <c r="C753" s="48"/>
     </row>
     <row r="754">
-      <c r="C754" s="49"/>
+      <c r="C754" s="48"/>
     </row>
     <row r="755">
-      <c r="C755" s="49"/>
+      <c r="C755" s="48"/>
     </row>
     <row r="756">
-      <c r="C756" s="49"/>
+      <c r="C756" s="48"/>
     </row>
     <row r="757">
-      <c r="C757" s="49"/>
+      <c r="C757" s="48"/>
     </row>
     <row r="758">
-      <c r="C758" s="49"/>
+      <c r="C758" s="48"/>
     </row>
     <row r="759">
-      <c r="C759" s="49"/>
+      <c r="C759" s="48"/>
     </row>
     <row r="760">
-      <c r="C760" s="49"/>
+      <c r="C760" s="48"/>
     </row>
     <row r="761">
-      <c r="C761" s="49"/>
+      <c r="C761" s="48"/>
     </row>
     <row r="762">
-      <c r="C762" s="49"/>
+      <c r="C762" s="48"/>
     </row>
     <row r="763">
-      <c r="C763" s="49"/>
+      <c r="C763" s="48"/>
     </row>
     <row r="764">
-      <c r="C764" s="49"/>
+      <c r="C764" s="48"/>
     </row>
     <row r="765">
-      <c r="C765" s="49"/>
+      <c r="C765" s="48"/>
     </row>
     <row r="766">
-      <c r="C766" s="49"/>
+      <c r="C766" s="48"/>
     </row>
     <row r="767">
-      <c r="C767" s="49"/>
+      <c r="C767" s="48"/>
     </row>
     <row r="768">
-      <c r="C768" s="49"/>
+      <c r="C768" s="48"/>
     </row>
     <row r="769">
-      <c r="C769" s="49"/>
+      <c r="C769" s="48"/>
     </row>
     <row r="770">
-      <c r="C770" s="49"/>
+      <c r="C770" s="48"/>
     </row>
     <row r="771">
-      <c r="C771" s="49"/>
+      <c r="C771" s="48"/>
     </row>
     <row r="772">
-      <c r="C772" s="49"/>
+      <c r="C772" s="48"/>
     </row>
     <row r="773">
-      <c r="C773" s="49"/>
+      <c r="C773" s="48"/>
     </row>
     <row r="774">
-      <c r="C774" s="49"/>
+      <c r="C774" s="48"/>
     </row>
     <row r="775">
-      <c r="C775" s="49"/>
+      <c r="C775" s="48"/>
     </row>
     <row r="776">
-      <c r="C776" s="49"/>
+      <c r="C776" s="48"/>
     </row>
     <row r="777">
-      <c r="C777" s="49"/>
+      <c r="C777" s="48"/>
     </row>
     <row r="778">
-      <c r="C778" s="49"/>
+      <c r="C778" s="48"/>
     </row>
     <row r="779">
-      <c r="C779" s="49"/>
+      <c r="C779" s="48"/>
     </row>
     <row r="780">
-      <c r="C780" s="49"/>
+      <c r="C780" s="48"/>
     </row>
     <row r="781">
-      <c r="C781" s="49"/>
+      <c r="C781" s="48"/>
     </row>
     <row r="782">
-      <c r="C782" s="49"/>
+      <c r="C782" s="48"/>
     </row>
     <row r="783">
-      <c r="C783" s="49"/>
+      <c r="C783" s="48"/>
     </row>
     <row r="784">
-      <c r="C784" s="49"/>
+      <c r="C784" s="48"/>
     </row>
     <row r="785">
-      <c r="C785" s="49"/>
+      <c r="C785" s="48"/>
     </row>
     <row r="786">
-      <c r="C786" s="49"/>
+      <c r="C786" s="48"/>
     </row>
     <row r="787">
-      <c r="C787" s="49"/>
+      <c r="C787" s="48"/>
     </row>
     <row r="788">
-      <c r="C788" s="49"/>
+      <c r="C788" s="48"/>
     </row>
     <row r="789">
-      <c r="C789" s="49"/>
+      <c r="C789" s="48"/>
     </row>
     <row r="790">
-      <c r="C790" s="49"/>
+      <c r="C790" s="48"/>
     </row>
     <row r="791">
-      <c r="C791" s="49"/>
+      <c r="C791" s="48"/>
     </row>
     <row r="792">
-      <c r="C792" s="49"/>
+      <c r="C792" s="48"/>
     </row>
     <row r="793">
-      <c r="C793" s="49"/>
+      <c r="C793" s="48"/>
     </row>
     <row r="794">
-      <c r="C794" s="49"/>
+      <c r="C794" s="48"/>
     </row>
     <row r="795">
-      <c r="C795" s="49"/>
+      <c r="C795" s="48"/>
     </row>
     <row r="796">
-      <c r="C796" s="49"/>
+      <c r="C796" s="48"/>
     </row>
     <row r="797">
-      <c r="C797" s="49"/>
+      <c r="C797" s="48"/>
     </row>
     <row r="798">
-      <c r="C798" s="49"/>
+      <c r="C798" s="48"/>
     </row>
     <row r="799">
-      <c r="C799" s="49"/>
+      <c r="C799" s="48"/>
     </row>
     <row r="800">
-      <c r="C800" s="49"/>
+      <c r="C800" s="48"/>
     </row>
     <row r="801">
-      <c r="C801" s="49"/>
+      <c r="C801" s="48"/>
     </row>
     <row r="802">
-      <c r="C802" s="49"/>
+      <c r="C802" s="48"/>
     </row>
     <row r="803">
-      <c r="C803" s="49"/>
+      <c r="C803" s="48"/>
     </row>
     <row r="804">
-      <c r="C804" s="49"/>
+      <c r="C804" s="48"/>
     </row>
     <row r="805">
-      <c r="C805" s="49"/>
+      <c r="C805" s="48"/>
     </row>
     <row r="806">
-      <c r="C806" s="49"/>
+      <c r="C806" s="48"/>
     </row>
     <row r="807">
-      <c r="C807" s="49"/>
+      <c r="C807" s="48"/>
     </row>
     <row r="808">
-      <c r="C808" s="49"/>
+      <c r="C808" s="48"/>
     </row>
     <row r="809">
-      <c r="C809" s="49"/>
+      <c r="C809" s="48"/>
     </row>
     <row r="810">
-      <c r="C810" s="49"/>
+      <c r="C810" s="48"/>
     </row>
     <row r="811">
-      <c r="C811" s="49"/>
+      <c r="C811" s="48"/>
     </row>
     <row r="812">
-      <c r="C812" s="49"/>
+      <c r="C812" s="48"/>
     </row>
     <row r="813">
-      <c r="C813" s="49"/>
+      <c r="C813" s="48"/>
     </row>
     <row r="814">
-      <c r="C814" s="49"/>
+      <c r="C814" s="48"/>
     </row>
     <row r="815">
-      <c r="C815" s="49"/>
+      <c r="C815" s="48"/>
     </row>
     <row r="816">
-      <c r="C816" s="49"/>
+      <c r="C816" s="48"/>
     </row>
     <row r="817">
-      <c r="C817" s="49"/>
+      <c r="C817" s="48"/>
     </row>
     <row r="818">
-      <c r="C818" s="49"/>
+      <c r="C818" s="48"/>
     </row>
     <row r="819">
-      <c r="C819" s="49"/>
+      <c r="C819" s="48"/>
     </row>
     <row r="820">
-      <c r="C820" s="49"/>
+      <c r="C820" s="48"/>
     </row>
     <row r="821">
-      <c r="C821" s="49"/>
+      <c r="C821" s="48"/>
     </row>
     <row r="822">
-      <c r="C822" s="49"/>
+      <c r="C822" s="48"/>
     </row>
     <row r="823">
-      <c r="C823" s="49"/>
+      <c r="C823" s="48"/>
     </row>
     <row r="824">
-      <c r="C824" s="49"/>
+      <c r="C824" s="48"/>
     </row>
     <row r="825">
-      <c r="C825" s="49"/>
+      <c r="C825" s="48"/>
     </row>
     <row r="826">
-      <c r="C826" s="49"/>
+      <c r="C826" s="48"/>
     </row>
     <row r="827">
-      <c r="C827" s="49"/>
+      <c r="C827" s="48"/>
     </row>
     <row r="828">
-      <c r="C828" s="49"/>
+      <c r="C828" s="48"/>
     </row>
     <row r="829">
-      <c r="C829" s="49"/>
+      <c r="C829" s="48"/>
     </row>
     <row r="830">
-      <c r="C830" s="49"/>
+      <c r="C830" s="48"/>
     </row>
     <row r="831">
-      <c r="C831" s="49"/>
+      <c r="C831" s="48"/>
     </row>
     <row r="832">
-      <c r="C832" s="49"/>
+      <c r="C832" s="48"/>
     </row>
     <row r="833">
-      <c r="C833" s="49"/>
+      <c r="C833" s="48"/>
     </row>
     <row r="834">
-      <c r="C834" s="49"/>
+      <c r="C834" s="48"/>
     </row>
     <row r="835">
-      <c r="C835" s="49"/>
+      <c r="C835" s="48"/>
     </row>
     <row r="836">
-      <c r="C836" s="49"/>
+      <c r="C836" s="48"/>
     </row>
     <row r="837">
-      <c r="C837" s="49"/>
+      <c r="C837" s="48"/>
     </row>
     <row r="838">
-      <c r="C838" s="49"/>
+      <c r="C838" s="48"/>
     </row>
     <row r="839">
-      <c r="C839" s="49"/>
+      <c r="C839" s="48"/>
     </row>
     <row r="840">
-      <c r="C840" s="49"/>
+      <c r="C840" s="48"/>
     </row>
     <row r="841">
-      <c r="C841" s="49"/>
+      <c r="C841" s="48"/>
     </row>
     <row r="842">
-      <c r="C842" s="49"/>
+      <c r="C842" s="48"/>
     </row>
     <row r="843">
-      <c r="C843" s="49"/>
+      <c r="C843" s="48"/>
     </row>
     <row r="844">
-      <c r="C844" s="49"/>
+      <c r="C844" s="48"/>
     </row>
     <row r="845">
-      <c r="C845" s="49"/>
+      <c r="C845" s="48"/>
     </row>
     <row r="846">
-      <c r="C846" s="49"/>
+      <c r="C846" s="48"/>
     </row>
     <row r="847">
-      <c r="C847" s="49"/>
+      <c r="C847" s="48"/>
     </row>
     <row r="848">
-      <c r="C848" s="49"/>
+      <c r="C848" s="48"/>
     </row>
     <row r="849">
-      <c r="C849" s="49"/>
+      <c r="C849" s="48"/>
     </row>
     <row r="850">
-      <c r="C850" s="49"/>
+      <c r="C850" s="48"/>
     </row>
     <row r="851">
-      <c r="C851" s="49"/>
+      <c r="C851" s="48"/>
     </row>
     <row r="852">
-      <c r="C852" s="49"/>
+      <c r="C852" s="48"/>
     </row>
     <row r="853">
-      <c r="C853" s="49"/>
+      <c r="C853" s="48"/>
     </row>
     <row r="854">
-      <c r="C854" s="49"/>
+      <c r="C854" s="48"/>
     </row>
     <row r="855">
-      <c r="C855" s="49"/>
+      <c r="C855" s="48"/>
     </row>
     <row r="856">
-      <c r="C856" s="49"/>
+      <c r="C856" s="48"/>
     </row>
     <row r="857">
-      <c r="C857" s="49"/>
+      <c r="C857" s="48"/>
     </row>
     <row r="858">
-      <c r="C858" s="49"/>
+      <c r="C858" s="48"/>
     </row>
     <row r="859">
-      <c r="C859" s="49"/>
+      <c r="C859" s="48"/>
     </row>
     <row r="860">
-      <c r="C860" s="49"/>
+      <c r="C860" s="48"/>
     </row>
     <row r="861">
-      <c r="C861" s="49"/>
+      <c r="C861" s="48"/>
     </row>
     <row r="862">
-      <c r="C862" s="49"/>
+      <c r="C862" s="48"/>
     </row>
     <row r="863">
-      <c r="C863" s="49"/>
+      <c r="C863" s="48"/>
     </row>
     <row r="864">
-      <c r="C864" s="49"/>
+      <c r="C864" s="48"/>
     </row>
     <row r="865">
-      <c r="C865" s="49"/>
+      <c r="C865" s="48"/>
     </row>
     <row r="866">
-      <c r="C866" s="49"/>
+      <c r="C866" s="48"/>
     </row>
     <row r="867">
-      <c r="C867" s="49"/>
+      <c r="C867" s="48"/>
     </row>
     <row r="868">
-      <c r="C868" s="49"/>
+      <c r="C868" s="48"/>
     </row>
     <row r="869">
-      <c r="C869" s="49"/>
+      <c r="C869" s="48"/>
     </row>
     <row r="870">
-      <c r="C870" s="49"/>
+      <c r="C870" s="48"/>
     </row>
     <row r="871">
-      <c r="C871" s="49"/>
+      <c r="C871" s="48"/>
     </row>
     <row r="872">
-      <c r="C872" s="49"/>
+      <c r="C872" s="48"/>
     </row>
     <row r="873">
-      <c r="C873" s="49"/>
+      <c r="C873" s="48"/>
     </row>
     <row r="874">
-      <c r="C874" s="49"/>
+      <c r="C874" s="48"/>
     </row>
     <row r="875">
-      <c r="C875" s="49"/>
+      <c r="C875" s="48"/>
     </row>
     <row r="876">
-      <c r="C876" s="49"/>
+      <c r="C876" s="48"/>
     </row>
     <row r="877">
-      <c r="C877" s="49"/>
+      <c r="C877" s="48"/>
     </row>
     <row r="878">
-      <c r="C878" s="49"/>
+      <c r="C878" s="48"/>
     </row>
     <row r="879">
-      <c r="C879" s="49"/>
+      <c r="C879" s="48"/>
     </row>
     <row r="880">
-      <c r="C880" s="49"/>
+      <c r="C880" s="48"/>
     </row>
     <row r="881">
-      <c r="C881" s="49"/>
+      <c r="C881" s="48"/>
     </row>
     <row r="882">
-      <c r="C882" s="49"/>
+      <c r="C882" s="48"/>
     </row>
     <row r="883">
-      <c r="C883" s="49"/>
+      <c r="C883" s="48"/>
     </row>
     <row r="884">
-      <c r="C884" s="49"/>
+      <c r="C884" s="48"/>
     </row>
     <row r="885">
-      <c r="C885" s="49"/>
+      <c r="C885" s="48"/>
     </row>
     <row r="886">
-      <c r="C886" s="49"/>
+      <c r="C886" s="48"/>
     </row>
     <row r="887">
-      <c r="C887" s="49"/>
+      <c r="C887" s="48"/>
     </row>
     <row r="888">
-      <c r="C888" s="49"/>
+      <c r="C888" s="48"/>
     </row>
     <row r="889">
-      <c r="C889" s="49"/>
+      <c r="C889" s="48"/>
     </row>
     <row r="890">
-      <c r="C890" s="49"/>
+      <c r="C890" s="48"/>
     </row>
     <row r="891">
-      <c r="C891" s="49"/>
+      <c r="C891" s="48"/>
     </row>
     <row r="892">
-      <c r="C892" s="49"/>
+      <c r="C892" s="48"/>
     </row>
     <row r="893">
-      <c r="C893" s="49"/>
+      <c r="C893" s="48"/>
     </row>
     <row r="894">
-      <c r="C894" s="49"/>
+      <c r="C894" s="48"/>
     </row>
     <row r="895">
-      <c r="C895" s="49"/>
+      <c r="C895" s="48"/>
     </row>
     <row r="896">
-      <c r="C896" s="49"/>
+      <c r="C896" s="48"/>
     </row>
     <row r="897">
-      <c r="C897" s="49"/>
+      <c r="C897" s="48"/>
     </row>
     <row r="898">
-      <c r="C898" s="49"/>
+      <c r="C898" s="48"/>
     </row>
     <row r="899">
-      <c r="C899" s="49"/>
+      <c r="C899" s="48"/>
     </row>
     <row r="900">
-      <c r="C900" s="49"/>
+      <c r="C900" s="48"/>
     </row>
     <row r="901">
-      <c r="C901" s="49"/>
+      <c r="C901" s="48"/>
     </row>
     <row r="902">
-      <c r="C902" s="49"/>
+      <c r="C902" s="48"/>
     </row>
     <row r="903">
-      <c r="C903" s="49"/>
+      <c r="C903" s="48"/>
     </row>
     <row r="904">
-      <c r="C904" s="49"/>
+      <c r="C904" s="48"/>
     </row>
     <row r="905">
-      <c r="C905" s="49"/>
+      <c r="C905" s="48"/>
     </row>
     <row r="906">
-      <c r="C906" s="49"/>
+      <c r="C906" s="48"/>
     </row>
     <row r="907">
-      <c r="C907" s="49"/>
+      <c r="C907" s="48"/>
     </row>
     <row r="908">
-      <c r="C908" s="49"/>
+      <c r="C908" s="48"/>
     </row>
     <row r="909">
-      <c r="C909" s="49"/>
+      <c r="C909" s="48"/>
     </row>
     <row r="910">
-      <c r="C910" s="49"/>
+      <c r="C910" s="48"/>
     </row>
     <row r="911">
-      <c r="C911" s="49"/>
+      <c r="C911" s="48"/>
     </row>
     <row r="912">
-      <c r="C912" s="49"/>
+      <c r="C912" s="48"/>
     </row>
     <row r="913">
-      <c r="C913" s="49"/>
+      <c r="C913" s="48"/>
     </row>
     <row r="914">
-      <c r="C914" s="49"/>
+      <c r="C914" s="48"/>
     </row>
     <row r="915">
-      <c r="C915" s="49"/>
+      <c r="C915" s="48"/>
     </row>
     <row r="916">
-      <c r="C916" s="49"/>
+      <c r="C916" s="48"/>
     </row>
     <row r="917">
-      <c r="C917" s="49"/>
+      <c r="C917" s="48"/>
     </row>
     <row r="918">
-      <c r="C918" s="49"/>
+      <c r="C918" s="48"/>
     </row>
     <row r="919">
-      <c r="C919" s="49"/>
+      <c r="C919" s="48"/>
     </row>
     <row r="920">
-      <c r="C920" s="49"/>
+      <c r="C920" s="48"/>
     </row>
     <row r="921">
-      <c r="C921" s="49"/>
+      <c r="C921" s="48"/>
     </row>
     <row r="922">
-      <c r="C922" s="49"/>
+      <c r="C922" s="48"/>
     </row>
     <row r="923">
-      <c r="C923" s="49"/>
+      <c r="C923" s="48"/>
     </row>
     <row r="924">
-      <c r="C924" s="49"/>
+      <c r="C924" s="48"/>
     </row>
     <row r="925">
-      <c r="C925" s="49"/>
+      <c r="C925" s="48"/>
     </row>
     <row r="926">
-      <c r="C926" s="49"/>
+      <c r="C926" s="48"/>
     </row>
     <row r="927">
-      <c r="C927" s="49"/>
+      <c r="C927" s="48"/>
     </row>
     <row r="928">
-      <c r="C928" s="49"/>
+      <c r="C928" s="48"/>
     </row>
     <row r="929">
-      <c r="C929" s="49"/>
+      <c r="C929" s="48"/>
     </row>
     <row r="930">
-      <c r="C930" s="49"/>
+      <c r="C930" s="48"/>
     </row>
     <row r="931">
-      <c r="C931" s="49"/>
+      <c r="C931" s="48"/>
     </row>
     <row r="932">
-      <c r="C932" s="49"/>
+      <c r="C932" s="48"/>
     </row>
     <row r="933">
-      <c r="C933" s="49"/>
+      <c r="C933" s="48"/>
     </row>
     <row r="934">
-      <c r="C934" s="49"/>
+      <c r="C934" s="48"/>
     </row>
     <row r="935">
-      <c r="C935" s="49"/>
+      <c r="C935" s="48"/>
     </row>
     <row r="936">
-      <c r="C936" s="49"/>
+      <c r="C936" s="48"/>
     </row>
     <row r="937">
-      <c r="C937" s="49"/>
+      <c r="C937" s="48"/>
     </row>
     <row r="938">
-      <c r="C938" s="49"/>
+      <c r="C938" s="48"/>
     </row>
     <row r="939">
-      <c r="C939" s="49"/>
+      <c r="C939" s="48"/>
     </row>
     <row r="940">
-      <c r="C940" s="49"/>
+      <c r="C940" s="48"/>
     </row>
     <row r="941">
-      <c r="C941" s="49"/>
+      <c r="C941" s="48"/>
     </row>
     <row r="942">
-      <c r="C942" s="49"/>
+      <c r="C942" s="48"/>
     </row>
     <row r="943">
-      <c r="C943" s="49"/>
+      <c r="C943" s="48"/>
     </row>
     <row r="944">
-      <c r="C944" s="49"/>
+      <c r="C944" s="48"/>
     </row>
     <row r="945">
-      <c r="C945" s="49"/>
+      <c r="C945" s="48"/>
     </row>
     <row r="946">
-      <c r="C946" s="49"/>
+      <c r="C946" s="48"/>
     </row>
     <row r="947">
-      <c r="C947" s="49"/>
+      <c r="C947" s="48"/>
     </row>
     <row r="948">
-      <c r="C948" s="49"/>
+      <c r="C948" s="48"/>
     </row>
     <row r="949">
-      <c r="C949" s="49"/>
+      <c r="C949" s="48"/>
     </row>
     <row r="950">
-      <c r="C950" s="49"/>
+      <c r="C950" s="48"/>
     </row>
     <row r="951">
-      <c r="C951" s="49"/>
+      <c r="C951" s="48"/>
     </row>
     <row r="952">
-      <c r="C952" s="49"/>
+      <c r="C952" s="48"/>
     </row>
     <row r="953">
-      <c r="C953" s="49"/>
+      <c r="C953" s="48"/>
     </row>
     <row r="954">
-      <c r="C954" s="49"/>
+      <c r="C954" s="48"/>
     </row>
     <row r="955">
-      <c r="C955" s="49"/>
+      <c r="C955" s="48"/>
     </row>
     <row r="956">
-      <c r="C956" s="49"/>
+      <c r="C956" s="48"/>
     </row>
     <row r="957">
-      <c r="C957" s="49"/>
+      <c r="C957" s="48"/>
     </row>
     <row r="958">
-      <c r="C958" s="49"/>
+      <c r="C958" s="48"/>
     </row>
     <row r="959">
-      <c r="C959" s="49"/>
+      <c r="C959" s="48"/>
     </row>
     <row r="960">
-      <c r="C960" s="49"/>
+      <c r="C960" s="48"/>
     </row>
     <row r="961">
-      <c r="C961" s="49"/>
+      <c r="C961" s="48"/>
     </row>
     <row r="962">
-      <c r="C962" s="49"/>
+      <c r="C962" s="48"/>
     </row>
     <row r="963">
-      <c r="C963" s="49"/>
+      <c r="C963" s="48"/>
     </row>
     <row r="964">
-      <c r="C964" s="49"/>
+      <c r="C964" s="48"/>
     </row>
     <row r="965">
-      <c r="C965" s="49"/>
+      <c r="C965" s="48"/>
     </row>
     <row r="966">
-      <c r="C966" s="49"/>
+      <c r="C966" s="48"/>
     </row>
     <row r="967">
-      <c r="C967" s="49"/>
+      <c r="C967" s="48"/>
     </row>
     <row r="968">
-      <c r="C968" s="49"/>
+      <c r="C968" s="48"/>
     </row>
     <row r="969">
-      <c r="C969" s="49"/>
+      <c r="C969" s="48"/>
     </row>
     <row r="970">
-      <c r="C970" s="49"/>
+      <c r="C970" s="48"/>
     </row>
     <row r="971">
-      <c r="C971" s="49"/>
+      <c r="C971" s="48"/>
     </row>
     <row r="972">
-      <c r="C972" s="49"/>
+      <c r="C972" s="48"/>
     </row>
     <row r="973">
-      <c r="C973" s="49"/>
+      <c r="C973" s="48"/>
     </row>
     <row r="974">
-      <c r="C974" s="49"/>
+      <c r="C974" s="48"/>
     </row>
     <row r="975">
-      <c r="C975" s="49"/>
+      <c r="C975" s="48"/>
     </row>
     <row r="976">
-      <c r="C976" s="49"/>
+      <c r="C976" s="48"/>
     </row>
     <row r="977">
-      <c r="C977" s="49"/>
+      <c r="C977" s="48"/>
     </row>
     <row r="978">
-      <c r="C978" s="49"/>
+      <c r="C978" s="48"/>
     </row>
     <row r="979">
-      <c r="C979" s="49"/>
+      <c r="C979" s="48"/>
     </row>
     <row r="980">
-      <c r="C980" s="49"/>
+      <c r="C980" s="48"/>
     </row>
     <row r="981">
-      <c r="C981" s="49"/>
+      <c r="C981" s="48"/>
     </row>
     <row r="982">
-      <c r="C982" s="49"/>
+      <c r="C982" s="48"/>
     </row>
     <row r="983">
-      <c r="C983" s="49"/>
+      <c r="C983" s="48"/>
     </row>
     <row r="984">
-      <c r="C984" s="49"/>
+      <c r="C984" s="48"/>
     </row>
     <row r="985">
-      <c r="C985" s="49"/>
+      <c r="C985" s="48"/>
     </row>
     <row r="986">
-      <c r="C986" s="49"/>
+      <c r="C986" s="48"/>
     </row>
     <row r="987">
-      <c r="C987" s="49"/>
+      <c r="C987" s="48"/>
     </row>
     <row r="988">
-      <c r="C988" s="49"/>
+      <c r="C988" s="48"/>
     </row>
     <row r="989">
-      <c r="C989" s="49"/>
+      <c r="C989" s="48"/>
     </row>
     <row r="990">
-      <c r="C990" s="49"/>
+      <c r="C990" s="48"/>
     </row>
     <row r="991">
-      <c r="C991" s="49"/>
+      <c r="C991" s="48"/>
     </row>
     <row r="992">
-      <c r="C992" s="49"/>
+      <c r="C992" s="48"/>
     </row>
     <row r="993">
-      <c r="C993" s="49"/>
+      <c r="C993" s="48"/>
     </row>
     <row r="994">
-      <c r="C994" s="49"/>
+      <c r="C994" s="48"/>
     </row>
     <row r="995">
-      <c r="C995" s="49"/>
+      <c r="C995" s="48"/>
     </row>
     <row r="996">
-      <c r="C996" s="49"/>
+      <c r="C996" s="48"/>
     </row>
     <row r="997">
-      <c r="C997" s="49"/>
+      <c r="C997" s="48"/>
     </row>
     <row r="998">
-      <c r="C998" s="49"/>
+      <c r="C998" s="48"/>
     </row>
     <row r="999">
-      <c r="C999" s="49"/>
+      <c r="C999" s="48"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="49"/>
+      <c r="C1000" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
